--- a/DOC/基本設計/社内管理_⑪基本給_マスタ機能.xlsx
+++ b/DOC/基本設計/社内管理_⑪基本給_マスタ機能.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\孙晔\git\ems\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078B7734-4A26-4592-800F-0FE9683ADC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC98E5D-009A-4974-8C4B-90662E4ABF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="履歴一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="基本給_マスタ機能" sheetId="2" r:id="rId2"/>
-    <sheet name="画面レイアウト" sheetId="3" r:id="rId3"/>
-    <sheet name="詳細" sheetId="4" r:id="rId4"/>
+    <sheet name="表紙" sheetId="6" r:id="rId1"/>
+    <sheet name="履歴一覧" sheetId="1" r:id="rId2"/>
+    <sheet name="基本給_マスタ機能" sheetId="2" r:id="rId3"/>
+    <sheet name="画面レイアウト" sheetId="3" r:id="rId4"/>
+    <sheet name="詳細" sheetId="4" r:id="rId5"/>
+    <sheet name="入出力項目定義書" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -212,6 +214,9 @@
   <si>
     <t>エラーが存在しない場合画面を入力内容を元に更新します。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入出力項目定義書</t>
   </si>
 </sst>
 </file>
@@ -648,87 +653,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1008,11 +1013,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C872FAE4-B41E-42F0-9BDA-A2B47CB2E71D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1023,12 +1044,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1138,7 +1159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF55F45F-E34F-402E-8D83-3ACC21DA2D6F}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1160,46 +1181,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -1207,128 +1228,128 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="29"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="29"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="27">
         <v>1</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="19"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="34"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="19"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="38" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="20"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
@@ -1336,21 +1357,25 @@
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
@@ -1363,17 +1388,13 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642415E2-172E-4181-99B2-6593F8487555}">
   <dimension ref="B2:L20"/>
   <sheetViews>
@@ -1388,46 +1409,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -1435,144 +1456,144 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
-      <c r="C5" s="43" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="34"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="34"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="34"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="34"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="34"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="34"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="42">
         <v>1</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="34"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="34"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="34"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="42" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="34"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
@@ -1580,13 +1601,19 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="C20:D20"/>
@@ -1596,24 +1623,18 @@
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1941E7-C67E-400A-BEA1-C8E583DE6A1F}">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1624,46 +1645,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -1691,7 +1712,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1746,4 +1767,79 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AA6AFE-52D4-4D1F-8FE5-D02BEAB54D9D}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DOC/基本設計/社内管理_⑪基本給_マスタ機能.xlsx
+++ b/DOC/基本設計/社内管理_⑪基本給_マスタ機能.xlsx
@@ -8,29 +8,745 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\孙晔\git\ems\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC98E5D-009A-4974-8C4B-90662E4ABF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE423BE0-B04B-4CCD-B361-4142A7B75B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="表紙" sheetId="6" r:id="rId1"/>
+    <sheet name="表紙" sheetId="7" r:id="rId1"/>
     <sheet name="履歴一覧" sheetId="1" r:id="rId2"/>
     <sheet name="基本給_マスタ機能" sheetId="2" r:id="rId3"/>
     <sheet name="画面レイアウト" sheetId="3" r:id="rId4"/>
     <sheet name="詳細" sheetId="4" r:id="rId5"/>
     <sheet name="入出力項目定義書" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="__ＩＯ２" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="_a1">#REF!</definedName>
+    <definedName name="_ＩＯ２" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="DB属性">[2]CODE!$H$3:$H$13</definedName>
+    <definedName name="HH" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="HH" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="HTML_CodePage" hidden="1">932</definedName>
+    <definedName name="HTML_Control" localSheetId="0" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="HTML_Control" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="HTML_Description" hidden="1">""</definedName>
+    <definedName name="HTML_Email" hidden="1">""</definedName>
+    <definedName name="HTML_Header" hidden="1">"ﾒ画1 (2)"</definedName>
+    <definedName name="HTML_LastUpdate" hidden="1">"00/05/23"</definedName>
+    <definedName name="HTML_LineAfter" hidden="1">FALSE</definedName>
+    <definedName name="HTML_LineBefore" hidden="1">FALSE</definedName>
+    <definedName name="HTML_Name" hidden="1">"大阪業務部"</definedName>
+    <definedName name="HTML_OBDlg2" hidden="1">TRUE</definedName>
+    <definedName name="HTML_OBDlg4" hidden="1">TRUE</definedName>
+    <definedName name="HTML_OS" hidden="1">0</definedName>
+    <definedName name="HTML_PathFile" hidden="1">"C:\My Documents\MyHTML.htm"</definedName>
+    <definedName name="HTML_Title" hidden="1">"購買(画面)"</definedName>
+    <definedName name="HTML1_1" hidden="1">"[個人データ.xls]情報処理試験!$B$1:$G$28"</definedName>
+    <definedName name="HTML1_10" hidden="1">""</definedName>
+    <definedName name="HTML1_11" hidden="1">1</definedName>
+    <definedName name="HTML1_12" hidden="1">"V:\tsqc\edu\kojin.htm"</definedName>
+    <definedName name="HTML1_2" hidden="1">1</definedName>
+    <definedName name="HTML1_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML1_4" hidden="1">"情報処理試験"</definedName>
+    <definedName name="HTML1_5" hidden="1">""</definedName>
+    <definedName name="HTML1_6" hidden="1">-4146</definedName>
+    <definedName name="HTML1_7" hidden="1">-4146</definedName>
+    <definedName name="HTML1_8" hidden="1">"97/06/20"</definedName>
+    <definedName name="HTML1_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML10_1" hidden="1">"[個人データ.xls]通信教育!$A$1:$F$122"</definedName>
+    <definedName name="HTML10_10" hidden="1">""</definedName>
+    <definedName name="HTML10_11" hidden="1">1</definedName>
+    <definedName name="HTML10_12" hidden="1">"V:\tsqc\edu\tsushin.htm"</definedName>
+    <definedName name="HTML10_2" hidden="1">1</definedName>
+    <definedName name="HTML10_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML10_4" hidden="1">"通信教育修了者一覧"</definedName>
+    <definedName name="HTML10_5" hidden="1">""</definedName>
+    <definedName name="HTML10_6" hidden="1">-4146</definedName>
+    <definedName name="HTML10_7" hidden="1">-4146</definedName>
+    <definedName name="HTML10_8" hidden="1">"97/06/20"</definedName>
+    <definedName name="HTML10_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML11_1" hidden="1">"[個人データ.xls]ＭＣＰ!$J$2:$P$7"</definedName>
+    <definedName name="HTML11_10" hidden="1">""</definedName>
+    <definedName name="HTML11_11" hidden="1">1</definedName>
+    <definedName name="HTML11_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\hyo2.htm"</definedName>
+    <definedName name="HTML11_2" hidden="1">1</definedName>
+    <definedName name="HTML11_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML11_4" hidden="1">"ＭＣＰ部門別合格者数"</definedName>
+    <definedName name="HTML11_5" hidden="1">""</definedName>
+    <definedName name="HTML11_6" hidden="1">-4146</definedName>
+    <definedName name="HTML11_7" hidden="1">-4146</definedName>
+    <definedName name="HTML11_8" hidden="1">"97/08/04"</definedName>
+    <definedName name="HTML11_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML12_1" hidden="1">"[個人データ.xls]通信教育!$H$2:$O$64"</definedName>
+    <definedName name="HTML12_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML12_11" hidden="1">1</definedName>
+    <definedName name="HTML12_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\hyo3.htm"</definedName>
+    <definedName name="HTML12_2" hidden="1">1</definedName>
+    <definedName name="HTML12_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML12_4" hidden="1">"通信教育　コース別部門別修了者数"</definedName>
+    <definedName name="HTML12_5" hidden="1">""</definedName>
+    <definedName name="HTML12_6" hidden="1">-4146</definedName>
+    <definedName name="HTML12_7" hidden="1">-4146</definedName>
+    <definedName name="HTML12_8" hidden="1">"97/08/04"</definedName>
+    <definedName name="HTML12_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML13_1" hidden="1">"[個人データ.xls]ＰＪ管理勉強会!$K$1:$O$50"</definedName>
+    <definedName name="HTML13_10" hidden="1">""</definedName>
+    <definedName name="HTML13_11" hidden="1">1</definedName>
+    <definedName name="HTML13_12" hidden="1">"V:\tsqc\edu\pj.htm"</definedName>
+    <definedName name="HTML13_2" hidden="1">1</definedName>
+    <definedName name="HTML13_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML13_4" hidden="1">"ＰＪ管理勉強会　受講者一覧"</definedName>
+    <definedName name="HTML13_5" hidden="1">""</definedName>
+    <definedName name="HTML13_6" hidden="1">-4146</definedName>
+    <definedName name="HTML13_7" hidden="1">-4146</definedName>
+    <definedName name="HTML13_8" hidden="1">"97/06/20"</definedName>
+    <definedName name="HTML13_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML14_1" hidden="1">"[個人データ.xls]英会話!$K$1:$O$30"</definedName>
+    <definedName name="HTML14_10" hidden="1">""</definedName>
+    <definedName name="HTML14_11" hidden="1">1</definedName>
+    <definedName name="HTML14_12" hidden="1">"V:\tsqc\edu\eikaiwa.htm"</definedName>
+    <definedName name="HTML14_2" hidden="1">1</definedName>
+    <definedName name="HTML14_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML14_4" hidden="1">"英会話勉強会　受講者一覧"</definedName>
+    <definedName name="HTML14_5" hidden="1">""</definedName>
+    <definedName name="HTML14_6" hidden="1">-4146</definedName>
+    <definedName name="HTML14_7" hidden="1">-4146</definedName>
+    <definedName name="HTML14_8" hidden="1">"97/06/20"</definedName>
+    <definedName name="HTML14_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML15_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$128"</definedName>
+    <definedName name="HTML15_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML15_11" hidden="1">1</definedName>
+    <definedName name="HTML15_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML15_2" hidden="1">1</definedName>
+    <definedName name="HTML15_3" hidden="1">""</definedName>
+    <definedName name="HTML15_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML15_5" hidden="1">""</definedName>
+    <definedName name="HTML15_6" hidden="1">-4146</definedName>
+    <definedName name="HTML15_7" hidden="1">-4146</definedName>
+    <definedName name="HTML15_8" hidden="1">"97/08/28"</definedName>
+    <definedName name="HTML15_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML16_1" hidden="1">"[個人データ.xls]英会話!$K$1:$O$31"</definedName>
+    <definedName name="HTML16_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML16_11" hidden="1">1</definedName>
+    <definedName name="HTML16_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\eikaiwa.htm"</definedName>
+    <definedName name="HTML16_2" hidden="1">1</definedName>
+    <definedName name="HTML16_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML16_4" hidden="1">"英会話受講者一覧"</definedName>
+    <definedName name="HTML16_5" hidden="1">""</definedName>
+    <definedName name="HTML16_6" hidden="1">-4146</definedName>
+    <definedName name="HTML16_7" hidden="1">-4146</definedName>
+    <definedName name="HTML16_8" hidden="1">"97/08/04"</definedName>
+    <definedName name="HTML16_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML17_1" hidden="1">"[個人データ.xls]HP合格者!$A$1:$E$115"</definedName>
+    <definedName name="HTML17_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML17_11" hidden="1">1</definedName>
+    <definedName name="HTML17_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML17_2" hidden="1">1</definedName>
+    <definedName name="HTML17_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML17_4" hidden="1">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML17_5" hidden="1">""</definedName>
+    <definedName name="HTML17_6" hidden="1">-4146</definedName>
+    <definedName name="HTML17_7" hidden="1">-4146</definedName>
+    <definedName name="HTML17_8" hidden="1">"97/07/28"</definedName>
+    <definedName name="HTML17_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML18_1" hidden="1">"[個人データ.xls]HP合格者!$G$1:$K$74"</definedName>
+    <definedName name="HTML18_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML18_11" hidden="1">1</definedName>
+    <definedName name="HTML18_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\shikenyo.htm"</definedName>
+    <definedName name="HTML18_2" hidden="1">1</definedName>
+    <definedName name="HTML18_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML18_4" hidden="1">"情報処理資格取得予定者一覧"</definedName>
+    <definedName name="HTML18_5" hidden="1">""</definedName>
+    <definedName name="HTML18_6" hidden="1">-4146</definedName>
+    <definedName name="HTML18_7" hidden="1">-4146</definedName>
+    <definedName name="HTML18_8" hidden="1">"97/09/05"</definedName>
+    <definedName name="HTML18_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML19_1" hidden="1">"[個人データ.xls]HP合格者!$A$2:$E$115"</definedName>
+    <definedName name="HTML19_10" hidden="1">""</definedName>
+    <definedName name="HTML19_11" hidden="1">1</definedName>
+    <definedName name="HTML19_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML19_2" hidden="1">1</definedName>
+    <definedName name="HTML19_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML19_4" hidden="1">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML19_5" hidden="1">""</definedName>
+    <definedName name="HTML19_6" hidden="1">-4146</definedName>
+    <definedName name="HTML19_7" hidden="1">-4146</definedName>
+    <definedName name="HTML19_8" hidden="1">"97/07/28"</definedName>
+    <definedName name="HTML19_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML2_1" hidden="1">"[個人データ.xls]情報処理試験!$A$1:$G$112"</definedName>
+    <definedName name="HTML2_10" hidden="1">""</definedName>
+    <definedName name="HTML2_11" hidden="1">1</definedName>
+    <definedName name="HTML2_12" hidden="1">"V:\tsqc\edu\MyHTML.htm"</definedName>
+    <definedName name="HTML2_2" hidden="1">1</definedName>
+    <definedName name="HTML2_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML2_4" hidden="1">"情報処理試験合格者"</definedName>
+    <definedName name="HTML2_5" hidden="1">""</definedName>
+    <definedName name="HTML2_6" hidden="1">-4146</definedName>
+    <definedName name="HTML2_7" hidden="1">-4146</definedName>
+    <definedName name="HTML2_8" hidden="1">"97/06/20"</definedName>
+    <definedName name="HTML2_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML20_1" hidden="1">"[個人データ.xls]HP合格者!$A$1:$E$117"</definedName>
+    <definedName name="HTML20_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML20_11" hidden="1">1</definedName>
+    <definedName name="HTML20_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML20_2" hidden="1">1</definedName>
+    <definedName name="HTML20_3" hidden="1">""</definedName>
+    <definedName name="HTML20_4" hidden="1">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML20_5" hidden="1">""</definedName>
+    <definedName name="HTML20_6" hidden="1">-4146</definedName>
+    <definedName name="HTML20_7" hidden="1">-4146</definedName>
+    <definedName name="HTML20_8" hidden="1">"97/09/05"</definedName>
+    <definedName name="HTML20_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML21_1" hidden="1">"[個人データ.xls]HP合格者!$A$2:$E$117"</definedName>
+    <definedName name="HTML21_10" hidden="1">""</definedName>
+    <definedName name="HTML21_11" hidden="1">1</definedName>
+    <definedName name="HTML21_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML21_2" hidden="1">1</definedName>
+    <definedName name="HTML21_3" hidden="1">""</definedName>
+    <definedName name="HTML21_4" hidden="1">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML21_5" hidden="1">""</definedName>
+    <definedName name="HTML21_6" hidden="1">-4146</definedName>
+    <definedName name="HTML21_7" hidden="1">-4146</definedName>
+    <definedName name="HTML21_8" hidden="1">"97/08/04"</definedName>
+    <definedName name="HTML21_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML22_1" hidden="1">"[個人データ.xls]HP合格者!$G$2:$K$74"</definedName>
+    <definedName name="HTML22_10" hidden="1">""</definedName>
+    <definedName name="HTML22_11" hidden="1">1</definedName>
+    <definedName name="HTML22_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\shikenyo.htm"</definedName>
+    <definedName name="HTML22_2" hidden="1">1</definedName>
+    <definedName name="HTML22_3" hidden="1">""</definedName>
+    <definedName name="HTML22_4" hidden="1">"情報処理試験取得予定者一覧"</definedName>
+    <definedName name="HTML22_5" hidden="1">""</definedName>
+    <definedName name="HTML22_6" hidden="1">-4146</definedName>
+    <definedName name="HTML22_7" hidden="1">-4146</definedName>
+    <definedName name="HTML22_8" hidden="1">"97/08/04"</definedName>
+    <definedName name="HTML22_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML23_1" hidden="1">"[個人データ.xls]情報処理試験!$J$2:$S$111"</definedName>
+    <definedName name="HTML23_10" hidden="1">""</definedName>
+    <definedName name="HTML23_11" hidden="1">1</definedName>
+    <definedName name="HTML23_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\hyo1.htm"</definedName>
+    <definedName name="HTML23_2" hidden="1">1</definedName>
+    <definedName name="HTML23_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML23_4" hidden="1">"情報処理試験　部門別合格者数"</definedName>
+    <definedName name="HTML23_5" hidden="1">""</definedName>
+    <definedName name="HTML23_6" hidden="1">-4146</definedName>
+    <definedName name="HTML23_7" hidden="1">-4146</definedName>
+    <definedName name="HTML23_8" hidden="1">"97/08/04"</definedName>
+    <definedName name="HTML23_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML24_1" hidden="1">"[個人データ.xls]ＰＪ管理勉強会!$K$1:$P$54"</definedName>
+    <definedName name="HTML24_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML24_11" hidden="1">1</definedName>
+    <definedName name="HTML24_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\pj.htm"</definedName>
+    <definedName name="HTML24_2" hidden="1">1</definedName>
+    <definedName name="HTML24_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML24_4" hidden="1">"ＰＪ管理勉強会"</definedName>
+    <definedName name="HTML24_5" hidden="1">""</definedName>
+    <definedName name="HTML24_6" hidden="1">-4146</definedName>
+    <definedName name="HTML24_7" hidden="1">-4146</definedName>
+    <definedName name="HTML24_8" hidden="1">"97/08/04"</definedName>
+    <definedName name="HTML24_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML25_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$124"</definedName>
+    <definedName name="HTML25_10" hidden="1">"noda@ts.osaka.omronsoft"</definedName>
+    <definedName name="HTML25_11" hidden="1">1</definedName>
+    <definedName name="HTML25_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML25_2" hidden="1">1</definedName>
+    <definedName name="HTML25_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML25_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML25_5" hidden="1">""</definedName>
+    <definedName name="HTML25_6" hidden="1">-4146</definedName>
+    <definedName name="HTML25_7" hidden="1">-4146</definedName>
+    <definedName name="HTML25_8" hidden="1">"97/08/28"</definedName>
+    <definedName name="HTML25_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML26_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$84"</definedName>
+    <definedName name="HTML26_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML26_11" hidden="1">1</definedName>
+    <definedName name="HTML26_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML26_2" hidden="1">1</definedName>
+    <definedName name="HTML26_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML26_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML26_5" hidden="1">""</definedName>
+    <definedName name="HTML26_6" hidden="1">-4146</definedName>
+    <definedName name="HTML26_7" hidden="1">-4146</definedName>
+    <definedName name="HTML26_8" hidden="1">"97/08/28"</definedName>
+    <definedName name="HTML26_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML27_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$86"</definedName>
+    <definedName name="HTML27_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML27_11" hidden="1">1</definedName>
+    <definedName name="HTML27_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML27_2" hidden="1">1</definedName>
+    <definedName name="HTML27_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML27_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML27_5" hidden="1">""</definedName>
+    <definedName name="HTML27_6" hidden="1">-4146</definedName>
+    <definedName name="HTML27_7" hidden="1">-4146</definedName>
+    <definedName name="HTML27_8" hidden="1">"97/08/28"</definedName>
+    <definedName name="HTML27_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML28_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$87"</definedName>
+    <definedName name="HTML28_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML28_11" hidden="1">1</definedName>
+    <definedName name="HTML28_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML28_2" hidden="1">1</definedName>
+    <definedName name="HTML28_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML28_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML28_5" hidden="1">""</definedName>
+    <definedName name="HTML28_6" hidden="1">-4146</definedName>
+    <definedName name="HTML28_7" hidden="1">-4146</definedName>
+    <definedName name="HTML28_8" hidden="1">"97/09/01"</definedName>
+    <definedName name="HTML28_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML29_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$100"</definedName>
+    <definedName name="HTML29_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML29_11" hidden="1">1</definedName>
+    <definedName name="HTML29_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML29_2" hidden="1">1</definedName>
+    <definedName name="HTML29_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML29_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML29_5" hidden="1">""</definedName>
+    <definedName name="HTML29_6" hidden="1">-4146</definedName>
+    <definedName name="HTML29_7" hidden="1">-4146</definedName>
+    <definedName name="HTML29_8" hidden="1">"97/09/02"</definedName>
+    <definedName name="HTML29_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML3_1" hidden="1">"[個人データ.xls]情報処理試験!$I$2:$R$88"</definedName>
+    <definedName name="HTML3_10" hidden="1">""</definedName>
+    <definedName name="HTML3_11" hidden="1">1</definedName>
+    <definedName name="HTML3_12" hidden="1">"V:\tsqc\edu\hyo1.htm"</definedName>
+    <definedName name="HTML3_2" hidden="1">1</definedName>
+    <definedName name="HTML3_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML3_4" hidden="1">"情報処理試験　年度別部門別合格者数"</definedName>
+    <definedName name="HTML3_5" hidden="1">""</definedName>
+    <definedName name="HTML3_6" hidden="1">-4146</definedName>
+    <definedName name="HTML3_7" hidden="1">-4146</definedName>
+    <definedName name="HTML3_8" hidden="1">"97/06/20"</definedName>
+    <definedName name="HTML3_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML30_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$97"</definedName>
+    <definedName name="HTML30_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML30_11" hidden="1">1</definedName>
+    <definedName name="HTML30_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML30_2" hidden="1">1</definedName>
+    <definedName name="HTML30_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML30_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML30_5" hidden="1">""</definedName>
+    <definedName name="HTML30_6" hidden="1">-4146</definedName>
+    <definedName name="HTML30_7" hidden="1">-4146</definedName>
+    <definedName name="HTML30_8" hidden="1">"97/09/05"</definedName>
+    <definedName name="HTML30_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML31_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$109"</definedName>
+    <definedName name="HTML31_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML31_11" hidden="1">1</definedName>
+    <definedName name="HTML31_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML31_2" hidden="1">1</definedName>
+    <definedName name="HTML31_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML31_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML31_5" hidden="1">""</definedName>
+    <definedName name="HTML31_6" hidden="1">-4146</definedName>
+    <definedName name="HTML31_7" hidden="1">-4146</definedName>
+    <definedName name="HTML31_8" hidden="1">"97/09/26"</definedName>
+    <definedName name="HTML31_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML32_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$112"</definedName>
+    <definedName name="HTML32_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML32_11" hidden="1">1</definedName>
+    <definedName name="HTML32_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML32_2" hidden="1">1</definedName>
+    <definedName name="HTML32_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML32_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML32_5" hidden="1">""</definedName>
+    <definedName name="HTML32_6" hidden="1">-4146</definedName>
+    <definedName name="HTML32_7" hidden="1">-4146</definedName>
+    <definedName name="HTML32_8" hidden="1">"97/09/30"</definedName>
+    <definedName name="HTML32_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML33_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$125"</definedName>
+    <definedName name="HTML33_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML33_11" hidden="1">1</definedName>
+    <definedName name="HTML33_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML33_2" hidden="1">1</definedName>
+    <definedName name="HTML33_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML33_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML33_5" hidden="1">""</definedName>
+    <definedName name="HTML33_6" hidden="1">-4146</definedName>
+    <definedName name="HTML33_7" hidden="1">-4146</definedName>
+    <definedName name="HTML33_8" hidden="1">"97/10/03"</definedName>
+    <definedName name="HTML33_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML34_1" hidden="1">"[個人データ.xls]ＰＪ管理勉強会!$K$1:$P$61"</definedName>
+    <definedName name="HTML34_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML34_11" hidden="1">1</definedName>
+    <definedName name="HTML34_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\pj.htm"</definedName>
+    <definedName name="HTML34_2" hidden="1">1</definedName>
+    <definedName name="HTML34_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML34_4" hidden="1">"ＰＪ管理勉強会"</definedName>
+    <definedName name="HTML34_5" hidden="1">""</definedName>
+    <definedName name="HTML34_6" hidden="1">-4146</definedName>
+    <definedName name="HTML34_7" hidden="1">-4146</definedName>
+    <definedName name="HTML34_8" hidden="1">"98/01/05"</definedName>
+    <definedName name="HTML34_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML35_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$133"</definedName>
+    <definedName name="HTML35_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML35_11" hidden="1">1</definedName>
+    <definedName name="HTML35_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML35_2" hidden="1">1</definedName>
+    <definedName name="HTML35_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML35_4" hidden="1">"９７年度研修受講一覧"</definedName>
+    <definedName name="HTML35_5" hidden="1">""</definedName>
+    <definedName name="HTML35_6" hidden="1">-4146</definedName>
+    <definedName name="HTML35_7" hidden="1">-4146</definedName>
+    <definedName name="HTML35_8" hidden="1">"98/01/05"</definedName>
+    <definedName name="HTML35_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML36_1" hidden="1">"[個人データ.xls]通信教育!$A$1:$F$137"</definedName>
+    <definedName name="HTML36_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML36_11" hidden="1">1</definedName>
+    <definedName name="HTML36_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\tsushin.htm"</definedName>
+    <definedName name="HTML36_2" hidden="1">1</definedName>
+    <definedName name="HTML36_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML36_4" hidden="1">"通信教育"</definedName>
+    <definedName name="HTML36_5" hidden="1">""</definedName>
+    <definedName name="HTML36_6" hidden="1">-4146</definedName>
+    <definedName name="HTML36_7" hidden="1">-4146</definedName>
+    <definedName name="HTML36_8" hidden="1">"98/01/05"</definedName>
+    <definedName name="HTML36_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML37_1" hidden="1">"[個人データ.xls]通信教育!$H$2:$O$72"</definedName>
+    <definedName name="HTML37_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML37_11" hidden="1">1</definedName>
+    <definedName name="HTML37_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\hyo3.htm"</definedName>
+    <definedName name="HTML37_2" hidden="1">1</definedName>
+    <definedName name="HTML37_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML37_4" hidden="1">"通信教育部門別修了者数一覧"</definedName>
+    <definedName name="HTML37_5" hidden="1">""</definedName>
+    <definedName name="HTML37_6" hidden="1">-4146</definedName>
+    <definedName name="HTML37_7" hidden="1">-4146</definedName>
+    <definedName name="HTML37_8" hidden="1">"98/01/05"</definedName>
+    <definedName name="HTML37_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML38_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$25"</definedName>
+    <definedName name="HTML38_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML38_11" hidden="1">1</definedName>
+    <definedName name="HTML38_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML38_2" hidden="1">1</definedName>
+    <definedName name="HTML38_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML38_4" hidden="1">"ＭＣＰ合格者一覧"</definedName>
+    <definedName name="HTML38_5" hidden="1">""</definedName>
+    <definedName name="HTML38_6" hidden="1">-4146</definedName>
+    <definedName name="HTML38_7" hidden="1">-4146</definedName>
+    <definedName name="HTML38_8" hidden="1">"98/01/05"</definedName>
+    <definedName name="HTML38_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML39_1" hidden="1">"[個人データ.xls]HP合格者!$A$1:$E$119"</definedName>
+    <definedName name="HTML39_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML39_11" hidden="1">1</definedName>
+    <definedName name="HTML39_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML39_2" hidden="1">1</definedName>
+    <definedName name="HTML39_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML39_4" hidden="1">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML39_5" hidden="1">""</definedName>
+    <definedName name="HTML39_6" hidden="1">-4146</definedName>
+    <definedName name="HTML39_7" hidden="1">-4146</definedName>
+    <definedName name="HTML39_8" hidden="1">"98/01/05"</definedName>
+    <definedName name="HTML39_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML4_1" hidden="1">"[個人データ.xls]ＭＣＰ!$A$1:$H$15"</definedName>
+    <definedName name="HTML4_10" hidden="1">""</definedName>
+    <definedName name="HTML4_11" hidden="1">1</definedName>
+    <definedName name="HTML4_12" hidden="1">"V:\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML4_2" hidden="1">1</definedName>
+    <definedName name="HTML4_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML4_4" hidden="1">"ＭＣＰ合格者"</definedName>
+    <definedName name="HTML4_5" hidden="1">""</definedName>
+    <definedName name="HTML4_6" hidden="1">-4146</definedName>
+    <definedName name="HTML4_7" hidden="1">-4146</definedName>
+    <definedName name="HTML4_8" hidden="1">"97/06/20"</definedName>
+    <definedName name="HTML4_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML40_1" hidden="1">"[個人データ.xls]情報処理試験!$J$2:$S$113"</definedName>
+    <definedName name="HTML40_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML40_11" hidden="1">1</definedName>
+    <definedName name="HTML40_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\hyo1.htm"</definedName>
+    <definedName name="HTML40_2" hidden="1">1</definedName>
+    <definedName name="HTML40_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML40_4" hidden="1">"情報処理試験部門別合格者数一覧"</definedName>
+    <definedName name="HTML40_5" hidden="1">""</definedName>
+    <definedName name="HTML40_6" hidden="1">-4146</definedName>
+    <definedName name="HTML40_7" hidden="1">-4146</definedName>
+    <definedName name="HTML40_8" hidden="1">"98/01/05"</definedName>
+    <definedName name="HTML40_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML41_1" hidden="1">"[個人データ.xls]ＭＣＰ!$J$2:$Q$11"</definedName>
+    <definedName name="HTML41_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML41_11" hidden="1">1</definedName>
+    <definedName name="HTML41_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\hyo2.htm"</definedName>
+    <definedName name="HTML41_2" hidden="1">1</definedName>
+    <definedName name="HTML41_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML41_4" hidden="1">"ＭＣＰ部門別合格者数一覧"</definedName>
+    <definedName name="HTML41_5" hidden="1">""</definedName>
+    <definedName name="HTML41_6" hidden="1">-4146</definedName>
+    <definedName name="HTML41_7" hidden="1">-4146</definedName>
+    <definedName name="HTML41_8" hidden="1">"98/01/05"</definedName>
+    <definedName name="HTML41_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML42_1" hidden="1">"[個人データ.xls]HP合格者!$A$2:$E$119"</definedName>
+    <definedName name="HTML42_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML42_11" hidden="1">1</definedName>
+    <definedName name="HTML42_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML42_2" hidden="1">1</definedName>
+    <definedName name="HTML42_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML42_4" hidden="1">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML42_5" hidden="1">""</definedName>
+    <definedName name="HTML42_6" hidden="1">-4146</definedName>
+    <definedName name="HTML42_7" hidden="1">-4146</definedName>
+    <definedName name="HTML42_8" hidden="1">"98/01/05"</definedName>
+    <definedName name="HTML42_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML43_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$170"</definedName>
+    <definedName name="HTML43_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML43_11" hidden="1">1</definedName>
+    <definedName name="HTML43_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML43_2" hidden="1">1</definedName>
+    <definedName name="HTML43_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML43_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML43_5" hidden="1">""</definedName>
+    <definedName name="HTML43_6" hidden="1">-4146</definedName>
+    <definedName name="HTML43_7" hidden="1">-4146</definedName>
+    <definedName name="HTML43_8" hidden="1">"98/01/07"</definedName>
+    <definedName name="HTML43_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML44_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$26"</definedName>
+    <definedName name="HTML44_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML44_11" hidden="1">1</definedName>
+    <definedName name="HTML44_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML44_2" hidden="1">1</definedName>
+    <definedName name="HTML44_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML44_4" hidden="1">"ＭＣＰ合格者一覧"</definedName>
+    <definedName name="HTML44_5" hidden="1">""</definedName>
+    <definedName name="HTML44_6" hidden="1">-4146</definedName>
+    <definedName name="HTML44_7" hidden="1">-4146</definedName>
+    <definedName name="HTML44_8" hidden="1">"98/01/09"</definedName>
+    <definedName name="HTML44_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML45_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$27"</definedName>
+    <definedName name="HTML45_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML45_11" hidden="1">1</definedName>
+    <definedName name="HTML45_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML45_2" hidden="1">1</definedName>
+    <definedName name="HTML45_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML45_4" hidden="1">"ＭＣＰ合格者一覧"</definedName>
+    <definedName name="HTML45_5" hidden="1">""</definedName>
+    <definedName name="HTML45_6" hidden="1">-4146</definedName>
+    <definedName name="HTML45_7" hidden="1">-4146</definedName>
+    <definedName name="HTML45_8" hidden="1">"98/01/16"</definedName>
+    <definedName name="HTML45_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML46_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$172"</definedName>
+    <definedName name="HTML46_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML46_11" hidden="1">1</definedName>
+    <definedName name="HTML46_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML46_2" hidden="1">1</definedName>
+    <definedName name="HTML46_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML46_4" hidden="1">"９７年度研修受講一覧"</definedName>
+    <definedName name="HTML46_5" hidden="1">""</definedName>
+    <definedName name="HTML46_6" hidden="1">-4146</definedName>
+    <definedName name="HTML46_7" hidden="1">-4146</definedName>
+    <definedName name="HTML46_8" hidden="1">"98/01/19"</definedName>
+    <definedName name="HTML46_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML47_1" hidden="1">"[個人データ.xls]HP合格者!$A$2:$E$123"</definedName>
+    <definedName name="HTML47_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML47_11" hidden="1">1</definedName>
+    <definedName name="HTML47_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML47_2" hidden="1">1</definedName>
+    <definedName name="HTML47_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML47_4" hidden="1">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML47_5" hidden="1">""</definedName>
+    <definedName name="HTML47_6" hidden="1">-4146</definedName>
+    <definedName name="HTML47_7" hidden="1">-4146</definedName>
+    <definedName name="HTML47_8" hidden="1">"98/01/19"</definedName>
+    <definedName name="HTML47_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML48_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$29"</definedName>
+    <definedName name="HTML48_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML48_11" hidden="1">1</definedName>
+    <definedName name="HTML48_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML48_2" hidden="1">1</definedName>
+    <definedName name="HTML48_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML48_4" hidden="1">"ＭＣＰ合格者一覧"</definedName>
+    <definedName name="HTML48_5" hidden="1">""</definedName>
+    <definedName name="HTML48_6" hidden="1">-4146</definedName>
+    <definedName name="HTML48_7" hidden="1">-4146</definedName>
+    <definedName name="HTML48_8" hidden="1">"98/01/19"</definedName>
+    <definedName name="HTML48_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML49_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$33"</definedName>
+    <definedName name="HTML49_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML49_11" hidden="1">1</definedName>
+    <definedName name="HTML49_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML49_2" hidden="1">1</definedName>
+    <definedName name="HTML49_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML49_4" hidden="1">"ＭＣＰ合格者一覧"</definedName>
+    <definedName name="HTML49_5" hidden="1">""</definedName>
+    <definedName name="HTML49_6" hidden="1">-4146</definedName>
+    <definedName name="HTML49_7" hidden="1">-4146</definedName>
+    <definedName name="HTML49_8" hidden="1">"98/01/20"</definedName>
+    <definedName name="HTML49_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML5_1" hidden="1">"'[個人データ.xls]９６年度研修'!$A$1:$B$150,$D$1:$E$150,$G$1:$G$150"</definedName>
+    <definedName name="HTML5_10" hidden="1">""</definedName>
+    <definedName name="HTML5_11" hidden="1">1</definedName>
+    <definedName name="HTML5_12" hidden="1">"V:\tsqc\edu\96kensyu.htm"</definedName>
+    <definedName name="HTML5_2" hidden="1">1</definedName>
+    <definedName name="HTML5_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML5_4" hidden="1">"９６年度研修受講者一覧"</definedName>
+    <definedName name="HTML5_5" hidden="1">""</definedName>
+    <definedName name="HTML5_6" hidden="1">-4146</definedName>
+    <definedName name="HTML5_7" hidden="1">-4146</definedName>
+    <definedName name="HTML5_8" hidden="1">"97/06/20"</definedName>
+    <definedName name="HTML5_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML50_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$173"</definedName>
+    <definedName name="HTML50_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML50_11" hidden="1">1</definedName>
+    <definedName name="HTML50_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML50_2" hidden="1">1</definedName>
+    <definedName name="HTML50_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML50_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML50_5" hidden="1">""</definedName>
+    <definedName name="HTML50_6" hidden="1">-4146</definedName>
+    <definedName name="HTML50_7" hidden="1">-4146</definedName>
+    <definedName name="HTML50_8" hidden="1">"98/01/20"</definedName>
+    <definedName name="HTML50_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML51_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$40"</definedName>
+    <definedName name="HTML51_10" hidden="1">"noda@ts.osaka.omronsoft.co.jp"</definedName>
+    <definedName name="HTML51_11" hidden="1">1</definedName>
+    <definedName name="HTML51_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML51_2" hidden="1">1</definedName>
+    <definedName name="HTML51_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML51_4" hidden="1">"ＭＣＰ合格者一覧"</definedName>
+    <definedName name="HTML51_5" hidden="1">""</definedName>
+    <definedName name="HTML51_6" hidden="1">-4146</definedName>
+    <definedName name="HTML51_7" hidden="1">-4146</definedName>
+    <definedName name="HTML51_8" hidden="1">"98/02/12"</definedName>
+    <definedName name="HTML51_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML52_1" hidden="1">"[個人データ.xls]HP合格者!$A$2:$E$124"</definedName>
+    <definedName name="HTML52_10" hidden="1">""</definedName>
+    <definedName name="HTML52_11" hidden="1">1</definedName>
+    <definedName name="HTML52_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\shiken.htm"</definedName>
+    <definedName name="HTML52_2" hidden="1">1</definedName>
+    <definedName name="HTML52_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML52_4" hidden="1">"情報処理試験合格者一覧"</definedName>
+    <definedName name="HTML52_5" hidden="1">""</definedName>
+    <definedName name="HTML52_6" hidden="1">-4146</definedName>
+    <definedName name="HTML52_7" hidden="1">-4146</definedName>
+    <definedName name="HTML52_8" hidden="1">"98/01/28"</definedName>
+    <definedName name="HTML52_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML53_1" hidden="1">"[個人データ.xls]通信教育!$A$1:$F$138"</definedName>
+    <definedName name="HTML53_10" hidden="1">""</definedName>
+    <definedName name="HTML53_11" hidden="1">1</definedName>
+    <definedName name="HTML53_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\tsushin.htm"</definedName>
+    <definedName name="HTML53_2" hidden="1">1</definedName>
+    <definedName name="HTML53_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML53_4" hidden="1">"通信教育受講終了一覧"</definedName>
+    <definedName name="HTML53_5" hidden="1">""</definedName>
+    <definedName name="HTML53_6" hidden="1">-4146</definedName>
+    <definedName name="HTML53_7" hidden="1">-4146</definedName>
+    <definedName name="HTML53_8" hidden="1">"98/02/03"</definedName>
+    <definedName name="HTML53_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML54_1" hidden="1">"[個人データ.xls]ＭＣＰ!$J$2:$S$11"</definedName>
+    <definedName name="HTML54_10" hidden="1">""</definedName>
+    <definedName name="HTML54_11" hidden="1">1</definedName>
+    <definedName name="HTML54_12" hidden="1">"\\Otshp1\wwwroot\tsqc\edu\hyo2.htm"</definedName>
+    <definedName name="HTML54_2" hidden="1">1</definedName>
+    <definedName name="HTML54_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML54_4" hidden="1">"ＭＣＰ部門別合格者数一覧"</definedName>
+    <definedName name="HTML54_5" hidden="1">""</definedName>
+    <definedName name="HTML54_6" hidden="1">-4146</definedName>
+    <definedName name="HTML54_7" hidden="1">-4146</definedName>
+    <definedName name="HTML54_8" hidden="1">"98/02/03"</definedName>
+    <definedName name="HTML54_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML6_1" hidden="1">"[個人データ.xls]HPＭＣＰ!$A$1:$F$15"</definedName>
+    <definedName name="HTML6_10" hidden="1">""</definedName>
+    <definedName name="HTML6_11" hidden="1">1</definedName>
+    <definedName name="HTML6_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\mcp.htm"</definedName>
+    <definedName name="HTML6_2" hidden="1">1</definedName>
+    <definedName name="HTML6_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML6_4" hidden="1">"ＭＣＰ合格者"</definedName>
+    <definedName name="HTML6_5" hidden="1">""</definedName>
+    <definedName name="HTML6_6" hidden="1">-4146</definedName>
+    <definedName name="HTML6_7" hidden="1">-4146</definedName>
+    <definedName name="HTML6_8" hidden="1">"97/08/04"</definedName>
+    <definedName name="HTML6_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML7_1" hidden="1">"[個人データ.xls]Sheet2!$A$1:$E$46"</definedName>
+    <definedName name="HTML7_10" hidden="1">""</definedName>
+    <definedName name="HTML7_11" hidden="1">1</definedName>
+    <definedName name="HTML7_12" hidden="1">"V:\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML7_2" hidden="1">1</definedName>
+    <definedName name="HTML7_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML7_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML7_5" hidden="1">""</definedName>
+    <definedName name="HTML7_6" hidden="1">-4146</definedName>
+    <definedName name="HTML7_7" hidden="1">-4146</definedName>
+    <definedName name="HTML7_8" hidden="1">"97/06/20"</definedName>
+    <definedName name="HTML7_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML8_1" hidden="1">"[個人データ.xls]HP９６年度研修!$A$1:$E$150"</definedName>
+    <definedName name="HTML8_10" hidden="1">""</definedName>
+    <definedName name="HTML8_11" hidden="1">1</definedName>
+    <definedName name="HTML8_12" hidden="1">"\\OTSHP1\wwwroot\tsqc\edu\96kensyu.htm"</definedName>
+    <definedName name="HTML8_2" hidden="1">1</definedName>
+    <definedName name="HTML8_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML8_4" hidden="1">"９６年度研修受講者一覧"</definedName>
+    <definedName name="HTML8_5" hidden="1">""</definedName>
+    <definedName name="HTML8_6" hidden="1">-4146</definedName>
+    <definedName name="HTML8_7" hidden="1">-4146</definedName>
+    <definedName name="HTML8_8" hidden="1">"97/08/04"</definedName>
+    <definedName name="HTML8_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTML9_1" hidden="1">"[個人データ.xls]HP９７年度研修!$A$1:$E$46"</definedName>
+    <definedName name="HTML9_10" hidden="1">""</definedName>
+    <definedName name="HTML9_11" hidden="1">1</definedName>
+    <definedName name="HTML9_12" hidden="1">"V:\tsqc\edu\97kensyu.htm"</definedName>
+    <definedName name="HTML9_2" hidden="1">1</definedName>
+    <definedName name="HTML9_3" hidden="1">"個人データ.xls"</definedName>
+    <definedName name="HTML9_4" hidden="1">"９７年度研修受講者一覧"</definedName>
+    <definedName name="HTML9_5" hidden="1">""</definedName>
+    <definedName name="HTML9_6" hidden="1">-4146</definedName>
+    <definedName name="HTML9_7" hidden="1">-4146</definedName>
+    <definedName name="HTML9_8" hidden="1">"97/06/20"</definedName>
+    <definedName name="HTML9_9" hidden="1">"野田美由希"</definedName>
+    <definedName name="HTMLCount" hidden="1">54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$X$44</definedName>
+    <definedName name="Print_Title">#REF!</definedName>
+    <definedName name="S_GAIIRAI_3">[4]外注業務_3!#REF!</definedName>
+    <definedName name="S_GAIRAI_31">#REF!</definedName>
+    <definedName name="SSGAIIRAI_3">#REF!</definedName>
+    <definedName name="STGAIIRAI_3">#REF!</definedName>
+    <definedName name="T_TANKA_F">#REF!</definedName>
+    <definedName name="tttt" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="tttt" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="wrn.ORIG." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="wrn.ORIG." hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" hidden="1">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" hidden="1">#REF!</definedName>
+    <definedName name="あ" localSheetId="0" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="あ" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="ああ" localSheetId="0" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="ああ" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="スケジュール" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="スケジュール" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="スケジュールORG" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="スケジュールORG" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="ソフト名">[6]定数!$B$2:$B$6</definedName>
+    <definedName name="可否" localSheetId="0">[7]定数!$A$2:$A$4</definedName>
+    <definedName name="可否">[6]定数!$A$2:$A$4</definedName>
+    <definedName name="詳細有り無しリスト">[8]リスト!$C$1:$C$2</definedName>
+    <definedName name="質問者リスト">[8]リスト!$A$1:$A$10</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="113">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -217,13 +933,533 @@
   </si>
   <si>
     <t>入出力項目定義書</t>
+  </si>
+  <si>
+    <t>画面：</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年月</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本給（円）</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残業代（円）</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通費（円）</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除（社会）</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除(源泉)</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲンセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除(住民税)</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウミンゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総額(円)</t>
+    <rPh sb="0" eb="2">
+      <t>ソウガク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S0001　　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郭 煥光</t>
+    <rPh sb="0" eb="4">
+      <t>ｇｈｇ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123,333</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2,222</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>500,000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>など</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S0002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１）管理権限で、全員一覧リストする</t>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２）社員ID</t>
+    <rPh sb="2" eb="4">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>３）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリックすると、給料明細画面へ遷移</t>
+    <rPh sb="8" eb="10">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>３）「作成」ボタンを押すと、給料作成画面へ遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>４）「前月」を押すと前月のデータが表示される</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>５）「次月」を押すと次月のデータが表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面名</t>
+  </si>
+  <si>
+    <t>社内管理システム</t>
+  </si>
+  <si>
+    <t>システム名</t>
+  </si>
+  <si>
+    <t>基本設計</t>
+  </si>
+  <si>
+    <t>基本給＿マスタ機能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プロジェクト：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年月日：</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/9/24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能ID：</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P0032</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能名称：</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>給料更新</t>
+    <rPh sb="0" eb="2">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者：</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P0001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氏名：</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所：</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>埼玉県川口市　○○町○○号室</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワグチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象月：</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2021/3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本給：</t>
+    <rPh sb="0" eb="3">
+      <t>キホンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>稼働時間：</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>210ｈ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残業時間：</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10h</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不足時間：0h</t>
+    <rPh sb="0" eb="2">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残業代：</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3,456円</t>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通費：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除（社会）：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除(源泉)：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除(住民税)：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総額：</t>
+    <rPh sb="0" eb="2">
+      <t>ソウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>契約情報、勤怠情報、交通費情報、福祉情報から画面を初期化する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コウツウヒ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各金額項目は修正可能</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「確定」を押すと、給料情報テーブルへ新規追加する。</t>
+    <rPh sb="1" eb="3">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>給料管理画面：</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +1499,58 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Fj明朝体(ﾓﾄﾔ)"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -284,7 +1572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -623,11 +1911,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -671,9 +2114,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -710,33 +2174,194 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準_0.業務フロー表紙" xfId="2" xr:uid="{DEFC6CDC-35D5-4A1D-9893-F4DF1BE1EA42}"/>
+    <cellStyle name="標準_全店拡大－原票" xfId="1" xr:uid="{4EB47FC1-6229-4E7C-8FC3-D28EAD656600}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -749,6 +2374,850 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B84315-37FA-48E3-8102-61E7CA40C3E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="974725"/>
+          <a:ext cx="482600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>296334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C2C807-C209-4730-AB6B-43627CE84A40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="978959"/>
+          <a:ext cx="1147233" cy="216958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>前月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>380134</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>509730</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>317501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA3C7D6-479B-4E03-8EAD-EA2C1169BE64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12456679" y="925080"/>
+          <a:ext cx="1249506" cy="287194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>113241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>412751</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>103716</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 磁気ディスク 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA33590-2984-4B95-9592-5D45F55B2E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11552767" y="9521824"/>
+          <a:ext cx="3078692" cy="530225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>給料テーブル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EB9601-286E-4B1F-A437-BEB786C59346}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1111250" y="1479550"/>
+          <a:ext cx="895350" cy="174625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>12345</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61BAF1A-3709-4907-BA3A-22290DB8422C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="3295650"/>
+          <a:ext cx="593725" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 磁気ディスク 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2DE191-0AFC-4E83-A279-59F295C379BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="5391149"/>
+          <a:ext cx="1196976" cy="1143001"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>①契約情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>②勤怠情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>③交通費情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>④福祉情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>407459</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>62441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>521759</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC312D6-8A5F-4C4F-9685-ADCC5198A79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8011584" y="9650941"/>
+          <a:ext cx="2098675" cy="297392"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>本画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>521759</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>18520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31220</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD041DA-041F-4B45-88C5-C1162018D1D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10110259" y="9786937"/>
+          <a:ext cx="1442508" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>407459</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>37041</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E0545A-AA0D-4F9B-BDEF-55B74941673B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="4"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6500284" y="9799637"/>
+          <a:ext cx="1511300" cy="5821"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="2.2"/>
+      <sheetName val="帳票一覧"/>
+      <sheetName val="設計条件表・機能変更概要 (サーバ)"/>
+      <sheetName val="帳票項目説明（明細部）"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙"/>
+      <sheetName val="メンテナンス表"/>
+      <sheetName val="1.画面レイアウト"/>
+      <sheetName val="2.処理概要"/>
+      <sheetName val="3.画面遷移"/>
+      <sheetName val="4.画面入出力項目記述"/>
+      <sheetName val="5.イベント処理定義書(画面）"/>
+      <sheetName val="CODE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙"/>
+      <sheetName val="入出力項目定義書"/>
+      <sheetName val="画面レイアウト"/>
+      <sheetName val="詳細"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="外注業務_1"/>
+      <sheetName val="外注業務_2"/>
+      <sheetName val="外注業務_3"/>
+      <sheetName val="外注業務_4"/>
+      <sheetName val="外注業務_5"/>
+      <sheetName val="外注業務_6"/>
+      <sheetName val="外注業務_7"/>
+      <sheetName val="外注業務_8"/>
+      <sheetName val="外注業務_9"/>
+      <sheetName val="SheetWaku"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="メイン"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="機能一覧使用状況アンケート"/>
+      <sheetName val="機能一覧"/>
+      <sheetName val="意見"/>
+      <sheetName val="定数"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="機能一覧使用状況アンケート"/>
+      <sheetName val="機能一覧"/>
+      <sheetName val="意見"/>
+      <sheetName val="定数"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="QA一覧"/>
+      <sheetName val="リスト"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1013,18 +3482,432 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C872FAE4-B41E-42F0-9BDA-A2B47CB2E71D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FBA3B9-BC17-4B80-BFB9-7C115498F186}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="21" width="5.25" style="69"/>
+    <col min="22" max="22" width="5.25" style="68"/>
+    <col min="23" max="23" width="5.25" style="69"/>
+    <col min="24" max="16384" width="5.25" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="70" customFormat="1">
+      <c r="A1" s="98"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="96"/>
+    </row>
+    <row r="2" spans="1:24" s="70" customFormat="1">
+      <c r="A2" s="75"/>
+      <c r="B2" s="95"/>
+      <c r="X2" s="74"/>
+    </row>
+    <row r="3" spans="1:24" s="70" customFormat="1">
+      <c r="A3" s="75"/>
+      <c r="X3" s="74"/>
+    </row>
+    <row r="4" spans="1:24" s="70" customFormat="1">
+      <c r="A4" s="75"/>
+      <c r="X4" s="74"/>
+    </row>
+    <row r="5" spans="1:24" s="70" customFormat="1">
+      <c r="A5" s="75"/>
+      <c r="X5" s="74"/>
+    </row>
+    <row r="6" spans="1:24" s="70" customFormat="1">
+      <c r="A6" s="75"/>
+      <c r="X6" s="74"/>
+    </row>
+    <row r="7" spans="1:24" s="70" customFormat="1">
+      <c r="A7" s="75"/>
+      <c r="X7" s="74"/>
+    </row>
+    <row r="8" spans="1:24" s="70" customFormat="1">
+      <c r="A8" s="75"/>
+      <c r="X8" s="74"/>
+    </row>
+    <row r="9" spans="1:24" s="70" customFormat="1">
+      <c r="A9" s="75"/>
+      <c r="X9" s="74"/>
+    </row>
+    <row r="10" spans="1:24" s="70" customFormat="1">
+      <c r="A10" s="75"/>
+      <c r="X10" s="74"/>
+    </row>
+    <row r="11" spans="1:24" s="70" customFormat="1">
+      <c r="A11" s="75"/>
+      <c r="X11" s="74"/>
+    </row>
+    <row r="12" spans="1:24" s="70" customFormat="1">
+      <c r="A12" s="75"/>
+      <c r="X12" s="74"/>
+    </row>
+    <row r="13" spans="1:24" s="70" customFormat="1">
+      <c r="A13" s="75"/>
+      <c r="X13" s="74"/>
+    </row>
+    <row r="14" spans="1:24" s="70" customFormat="1">
+      <c r="A14" s="75"/>
+      <c r="X14" s="74"/>
+    </row>
+    <row r="15" spans="1:24" s="70" customFormat="1" ht="23.5">
+      <c r="A15" s="75"/>
+      <c r="I15" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="X15" s="74"/>
+    </row>
+    <row r="16" spans="1:24" s="70" customFormat="1">
+      <c r="A16" s="75"/>
+      <c r="X16" s="74"/>
+    </row>
+    <row r="17" spans="1:24" s="70" customFormat="1">
+      <c r="A17" s="75"/>
+      <c r="X17" s="74"/>
+    </row>
+    <row r="18" spans="1:24" s="70" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="75"/>
+      <c r="G18" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="92"/>
+      <c r="X18" s="74"/>
+    </row>
+    <row r="19" spans="1:24" s="70" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="75"/>
+      <c r="G19" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="89"/>
+      <c r="X19" s="74"/>
+    </row>
+    <row r="20" spans="1:24" s="70" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A20" s="75"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="86"/>
+      <c r="X20" s="74"/>
+    </row>
+    <row r="21" spans="1:24" s="70" customFormat="1">
+      <c r="A21" s="75"/>
+      <c r="X21" s="74"/>
+    </row>
+    <row r="22" spans="1:24" s="70" customFormat="1" ht="13">
+      <c r="A22" s="75"/>
+      <c r="G22" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="83"/>
+      <c r="X22" s="74"/>
+    </row>
+    <row r="23" spans="1:24" s="70" customFormat="1">
+      <c r="A23" s="75"/>
+      <c r="G23" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="80"/>
+      <c r="X23" s="74"/>
+    </row>
+    <row r="24" spans="1:24" s="70" customFormat="1">
+      <c r="A24" s="75"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="77"/>
+      <c r="X24" s="74"/>
+    </row>
+    <row r="25" spans="1:24" s="70" customFormat="1">
+      <c r="A25" s="75"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="X25" s="74"/>
+    </row>
+    <row r="26" spans="1:24" s="70" customFormat="1" ht="13">
+      <c r="A26" s="75"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="X26" s="74"/>
+    </row>
+    <row r="27" spans="1:24" s="70" customFormat="1">
+      <c r="A27" s="75"/>
+      <c r="X27" s="74"/>
+    </row>
+    <row r="28" spans="1:24" s="70" customFormat="1">
+      <c r="A28" s="75"/>
+      <c r="X28" s="74"/>
+    </row>
+    <row r="29" spans="1:24" s="70" customFormat="1">
+      <c r="A29" s="75"/>
+      <c r="X29" s="74"/>
+    </row>
+    <row r="30" spans="1:24" s="70" customFormat="1">
+      <c r="A30" s="75"/>
+      <c r="X30" s="74"/>
+    </row>
+    <row r="31" spans="1:24" s="70" customFormat="1">
+      <c r="A31" s="75"/>
+      <c r="X31" s="74"/>
+    </row>
+    <row r="32" spans="1:24" s="70" customFormat="1">
+      <c r="A32" s="75"/>
+      <c r="X32" s="74"/>
+    </row>
+    <row r="33" spans="1:24" s="70" customFormat="1">
+      <c r="A33" s="75"/>
+      <c r="K33" s="69"/>
+      <c r="X33" s="74"/>
+    </row>
+    <row r="34" spans="1:24" s="70" customFormat="1">
+      <c r="A34" s="75"/>
+      <c r="K34" s="69"/>
+      <c r="X34" s="74"/>
+    </row>
+    <row r="35" spans="1:24" s="70" customFormat="1">
+      <c r="A35" s="75"/>
+      <c r="K35" s="69"/>
+      <c r="X35" s="74"/>
+    </row>
+    <row r="36" spans="1:24" s="70" customFormat="1">
+      <c r="A36" s="75"/>
+      <c r="X36" s="74"/>
+    </row>
+    <row r="37" spans="1:24" s="70" customFormat="1">
+      <c r="A37" s="75"/>
+      <c r="X37" s="74"/>
+    </row>
+    <row r="38" spans="1:24" s="70" customFormat="1">
+      <c r="A38" s="75"/>
+      <c r="K38" s="69"/>
+      <c r="X38" s="74"/>
+    </row>
+    <row r="39" spans="1:24" s="70" customFormat="1">
+      <c r="A39" s="75"/>
+      <c r="X39" s="74"/>
+    </row>
+    <row r="40" spans="1:24" s="70" customFormat="1">
+      <c r="A40" s="75"/>
+      <c r="X40" s="74"/>
+    </row>
+    <row r="41" spans="1:24" s="70" customFormat="1">
+      <c r="A41" s="75"/>
+      <c r="X41" s="74"/>
+    </row>
+    <row r="42" spans="1:24" s="70" customFormat="1">
+      <c r="A42" s="75"/>
+      <c r="X42" s="74"/>
+    </row>
+    <row r="43" spans="1:24" s="70" customFormat="1">
+      <c r="A43" s="75"/>
+      <c r="X43" s="74"/>
+    </row>
+    <row r="44" spans="1:24" s="70" customFormat="1">
+      <c r="A44" s="73"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="71"/>
+    </row>
+    <row r="49" spans="4:11">
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+    </row>
+    <row r="50" spans="4:11">
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+    </row>
+    <row r="51" spans="4:11">
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+    </row>
+    <row r="52" spans="4:11">
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+    </row>
+    <row r="53" spans="4:11">
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+    </row>
+    <row r="54" spans="4:11">
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="G23:R24"/>
+    <mergeCell ref="G19:R20"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.43307086614173229" header="0.39370078740157483" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -1036,22 +3919,22 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="2:5" ht="14.5" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,85 +3948,85 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="14.5" thickTop="1">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1170,7 +4053,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1180,18 +4063,18 @@
     <col min="12" max="12" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
@@ -1199,145 +4082,145 @@
       </c>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12">
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.5" customHeight="1">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-    </row>
-    <row r="6" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="2:12" ht="18.5" customHeight="1">
       <c r="B6" s="11"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="2:12" ht="18.5" customHeight="1">
       <c r="B7" s="11"/>
       <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="2:12" ht="18.5" customHeight="1">
       <c r="B8" s="11"/>
       <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-    </row>
-    <row r="9" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="2:12" ht="18.5" customHeight="1">
       <c r="B9" s="11"/>
       <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.5" customHeight="1">
       <c r="B10" s="11"/>
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.5" customHeight="1">
       <c r="B11" s="11"/>
       <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.5" customHeight="1">
       <c r="B12" s="11"/>
       <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="34">
         <v>1</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.5" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.5" customHeight="1">
       <c r="B14" s="11"/>
       <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="2:12">
       <c r="C15" s="13"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="C16" s="13"/>
       <c r="D16" s="9"/>
       <c r="E16" s="20" t="s">
@@ -1345,30 +4228,30 @@
       </c>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6">
       <c r="C17" s="14"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6">
       <c r="C19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="26" t="s">
+    <row r="20" spans="3:6">
+      <c r="C20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="26" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1396,30 +4279,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642415E2-172E-4181-99B2-6593F8487555}">
-  <dimension ref="B2:L20"/>
+  <dimension ref="B2:AL46"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.4140625" customWidth="1"/>
+    <col min="11" max="11" width="7.4140625" customWidth="1"/>
+    <col min="13" max="13" width="4.9140625" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.203125E-2" customWidth="1"/>
+    <col min="16" max="16" width="5.08203125" customWidth="1"/>
+    <col min="18" max="18" width="3.08203125" customWidth="1"/>
+    <col min="20" max="20" width="3.08203125" customWidth="1"/>
+    <col min="22" max="22" width="5.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:38">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
@@ -1427,296 +4320,938 @@
       </c>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:38">
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="5" spans="2:38">
+      <c r="B5" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="50"/>
+    </row>
+    <row r="6" spans="2:38" ht="27.5" customHeight="1">
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="50"/>
+    </row>
+    <row r="7" spans="2:38">
+      <c r="B7" s="48"/>
+      <c r="C7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="V7" s="62"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="2:38" ht="21.5" customHeight="1">
+      <c r="B8" s="48"/>
+      <c r="C8" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="66">
+        <v>255555</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="54">
+        <v>6666</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" s="54">
+        <v>7777</v>
+      </c>
+      <c r="M8" s="55"/>
+      <c r="N8" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="63"/>
+      <c r="U8" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="64"/>
+      <c r="W8" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38">
+      <c r="B9" s="48"/>
+      <c r="C9" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="2:38">
+      <c r="B10" s="48"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="2:38">
+      <c r="B11" s="48"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="2:38">
+      <c r="B12" s="48"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="2:38">
+      <c r="B13" s="48"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="2:38">
+      <c r="B14" s="48"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15" spans="2:38">
+      <c r="B15" s="48"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="2:38">
+      <c r="B16" s="48"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="10"/>
+      <c r="AC16" s="50"/>
+    </row>
+    <row r="17" spans="2:38">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="50"/>
+    </row>
+    <row r="18" spans="2:38">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="58"/>
+    </row>
+    <row r="20" spans="2:38">
+      <c r="B20" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="49"/>
+    </row>
+    <row r="21" spans="2:38">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38">
+      <c r="B22" s="48"/>
+      <c r="C22" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38">
+      <c r="B23" s="48"/>
+      <c r="C23" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38">
+      <c r="B24" s="48"/>
+      <c r="C24" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38">
+      <c r="B25" s="48"/>
+      <c r="C25" s="49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38">
+      <c r="B26" s="48"/>
+      <c r="C26" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="23" t="s">
+    <row r="31" spans="2:38">
+      <c r="B31" s="12"/>
+      <c r="C31" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="9" t="s">
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="2:38">
+      <c r="B32" s="13"/>
+      <c r="C32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D32" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="9" t="s">
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="13"/>
+      <c r="C33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D33" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="9" t="s">
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="13"/>
+      <c r="C34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="9" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="13"/>
+      <c r="C35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="9" t="s">
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="13"/>
+      <c r="C36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D36" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="9" t="s">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="13"/>
+      <c r="C37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D37" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="9" t="s">
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="13"/>
+      <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D38" s="25">
         <v>1</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="9" t="s">
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="13"/>
+      <c r="C39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D39" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="9" t="s">
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="13"/>
+      <c r="C40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D40" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="22" t="s">
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="13"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="13"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="14"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="C45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="43" t="s">
+    <row r="46" spans="2:7">
+      <c r="C46" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D46" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D6:F6"/>
+  <mergeCells count="93">
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1941E7-C67E-400A-BEA1-C8E583DE6A1F}">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:AI58"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L3"/>
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.58203125" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="4.25" customWidth="1"/>
+    <col min="9" max="9" width="5.08203125" customWidth="1"/>
+    <col min="10" max="10" width="5.25" customWidth="1"/>
+    <col min="11" max="11" width="5.08203125" customWidth="1"/>
+    <col min="12" max="12" width="3.4140625" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" customWidth="1"/>
+    <col min="17" max="17" width="4.5" customWidth="1"/>
+    <col min="18" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="5.25" customWidth="1"/>
+    <col min="20" max="21" width="4.08203125" customWidth="1"/>
+    <col min="22" max="22" width="3.1640625" customWidth="1"/>
+    <col min="23" max="23" width="2.5" customWidth="1"/>
+    <col min="24" max="24" width="3.5" customWidth="1"/>
+    <col min="25" max="25" width="3.25" customWidth="1"/>
+    <col min="26" max="26" width="4.08203125" customWidth="1"/>
+    <col min="27" max="27" width="7.1640625" customWidth="1"/>
+    <col min="28" max="28" width="3.25" customWidth="1"/>
+    <col min="29" max="29" width="2.33203125" customWidth="1"/>
+    <col min="30" max="30" width="5.4140625" customWidth="1"/>
+    <col min="31" max="31" width="3.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
+    <col min="34" max="34" width="4.25" customWidth="1"/>
+    <col min="35" max="35" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:35" ht="17.5">
+      <c r="B2" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+    </row>
+    <row r="3" spans="2:35" ht="14.5" thickBot="1">
+      <c r="B3" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+    </row>
+    <row r="4" spans="2:35" ht="14.5" thickTop="1">
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:35">
       <c r="B5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:35">
       <c r="C6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:35">
       <c r="C7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:35">
       <c r="D8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:35">
       <c r="D9" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:35">
       <c r="D10" t="s">
         <v>34</v>
       </c>
@@ -1724,7 +5259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:35">
       <c r="D11" t="s">
         <v>36</v>
       </c>
@@ -1732,40 +5267,1369 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:35">
       <c r="B13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:35">
       <c r="C14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:35">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:35">
       <c r="C17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:35">
       <c r="D18" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="24" spans="2:35">
+      <c r="B24" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="50"/>
+    </row>
+    <row r="25" spans="2:35">
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="50"/>
+    </row>
+    <row r="26" spans="2:35">
+      <c r="B26" s="48"/>
+      <c r="C26" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="50"/>
+    </row>
+    <row r="27" spans="2:35">
+      <c r="B27" s="48"/>
+      <c r="C27" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="50"/>
+    </row>
+    <row r="28" spans="2:35">
+      <c r="B28" s="48"/>
+      <c r="C28" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="50"/>
+    </row>
+    <row r="29" spans="2:35">
+      <c r="B29" s="48"/>
+      <c r="C29" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="50"/>
+    </row>
+    <row r="30" spans="2:35">
+      <c r="B30" s="48"/>
+      <c r="C30" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="50"/>
+    </row>
+    <row r="31" spans="2:35">
+      <c r="B31" s="48"/>
+      <c r="C31" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="50"/>
+    </row>
+    <row r="32" spans="2:35">
+      <c r="B32" s="48"/>
+      <c r="C32" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="50"/>
+    </row>
+    <row r="33" spans="2:35">
+      <c r="B33" s="48"/>
+      <c r="C33" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="50"/>
+    </row>
+    <row r="34" spans="2:35">
+      <c r="B34" s="48"/>
+      <c r="C34" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="50"/>
+    </row>
+    <row r="35" spans="2:35">
+      <c r="B35" s="48"/>
+      <c r="C35" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="50"/>
+    </row>
+    <row r="36" spans="2:35">
+      <c r="B36" s="48"/>
+      <c r="C36" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="50"/>
+    </row>
+    <row r="37" spans="2:35">
+      <c r="B37" s="48"/>
+      <c r="C37" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="50"/>
+    </row>
+    <row r="38" spans="2:35">
+      <c r="B38" s="48"/>
+      <c r="C38" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="49"/>
+      <c r="AD38" s="49"/>
+      <c r="AE38" s="49"/>
+      <c r="AF38" s="49"/>
+      <c r="AG38" s="49"/>
+      <c r="AH38" s="49"/>
+      <c r="AI38" s="50"/>
+    </row>
+    <row r="39" spans="2:35">
+      <c r="B39" s="48"/>
+      <c r="C39" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="49"/>
+      <c r="AI39" s="50"/>
+    </row>
+    <row r="40" spans="2:35">
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="49"/>
+      <c r="AC40" s="49"/>
+      <c r="AD40" s="49"/>
+      <c r="AE40" s="49"/>
+      <c r="AF40" s="49"/>
+      <c r="AG40" s="49"/>
+      <c r="AH40" s="49"/>
+      <c r="AI40" s="50"/>
+    </row>
+    <row r="41" spans="2:35">
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="49"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="49"/>
+      <c r="AC41" s="49"/>
+      <c r="AD41" s="49"/>
+      <c r="AE41" s="49"/>
+      <c r="AF41" s="49"/>
+      <c r="AG41" s="49"/>
+      <c r="AH41" s="49"/>
+      <c r="AI41" s="50"/>
+    </row>
+    <row r="42" spans="2:35">
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="49"/>
+      <c r="Z42" s="49"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="49"/>
+      <c r="AC42" s="49"/>
+      <c r="AD42" s="49"/>
+      <c r="AE42" s="49"/>
+      <c r="AF42" s="49"/>
+      <c r="AG42" s="49"/>
+      <c r="AH42" s="49"/>
+      <c r="AI42" s="50"/>
+    </row>
+    <row r="43" spans="2:35">
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="49"/>
+      <c r="AC43" s="49"/>
+      <c r="AD43" s="49"/>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="49"/>
+      <c r="AG43" s="49"/>
+      <c r="AH43" s="49"/>
+      <c r="AI43" s="50"/>
+    </row>
+    <row r="44" spans="2:35">
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="49"/>
+      <c r="X44" s="49"/>
+      <c r="Y44" s="49"/>
+      <c r="Z44" s="49"/>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="49"/>
+      <c r="AC44" s="49"/>
+      <c r="AD44" s="49"/>
+      <c r="AE44" s="49"/>
+      <c r="AF44" s="49"/>
+      <c r="AG44" s="49"/>
+      <c r="AH44" s="49"/>
+      <c r="AI44" s="50"/>
+    </row>
+    <row r="45" spans="2:35">
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" s="57"/>
+      <c r="Z45" s="57"/>
+      <c r="AA45" s="57"/>
+      <c r="AB45" s="57"/>
+      <c r="AC45" s="57"/>
+      <c r="AD45" s="57"/>
+      <c r="AE45" s="57"/>
+      <c r="AF45" s="57"/>
+      <c r="AG45" s="57"/>
+      <c r="AH45" s="57"/>
+      <c r="AI45" s="58"/>
+    </row>
+    <row r="46" spans="2:35">
+      <c r="B46" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="49"/>
+      <c r="AE46" s="49"/>
+      <c r="AF46" s="49"/>
+      <c r="AG46" s="49"/>
+      <c r="AH46" s="49"/>
+      <c r="AI46" s="50"/>
+    </row>
+    <row r="47" spans="2:35">
+      <c r="B47" s="48"/>
+      <c r="C47" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="49"/>
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="49"/>
+      <c r="AD47" s="49"/>
+      <c r="AE47" s="49"/>
+      <c r="AF47" s="49"/>
+      <c r="AG47" s="49"/>
+      <c r="AH47" s="49"/>
+      <c r="AI47" s="50"/>
+    </row>
+    <row r="48" spans="2:35">
+      <c r="B48" s="48"/>
+      <c r="C48" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="49"/>
+      <c r="V48" s="49"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AE48" s="49"/>
+      <c r="AF48" s="49"/>
+      <c r="AG48" s="49"/>
+      <c r="AH48" s="49"/>
+      <c r="AI48" s="50"/>
+    </row>
+    <row r="49" spans="2:35">
+      <c r="B49" s="48"/>
+      <c r="C49" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49"/>
+      <c r="Y49" s="49"/>
+      <c r="Z49" s="49"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="49"/>
+      <c r="AC49" s="49"/>
+      <c r="AD49" s="49"/>
+      <c r="AE49" s="49"/>
+      <c r="AF49" s="49"/>
+      <c r="AG49" s="49"/>
+      <c r="AH49" s="49"/>
+      <c r="AI49" s="50"/>
+    </row>
+    <row r="50" spans="2:35">
+      <c r="B50" s="48"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="49"/>
+      <c r="X50" s="49"/>
+      <c r="Y50" s="49"/>
+      <c r="Z50" s="49"/>
+      <c r="AA50" s="49"/>
+      <c r="AB50" s="49"/>
+      <c r="AC50" s="49"/>
+      <c r="AD50" s="49"/>
+      <c r="AE50" s="49"/>
+      <c r="AF50" s="49"/>
+      <c r="AG50" s="49"/>
+      <c r="AH50" s="49"/>
+      <c r="AI50" s="50"/>
+    </row>
+    <row r="51" spans="2:35">
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="57"/>
+      <c r="X51" s="57"/>
+      <c r="Y51" s="57"/>
+      <c r="Z51" s="57"/>
+      <c r="AA51" s="57"/>
+      <c r="AB51" s="57"/>
+      <c r="AC51" s="57"/>
+      <c r="AD51" s="57"/>
+      <c r="AE51" s="57"/>
+      <c r="AF51" s="57"/>
+      <c r="AG51" s="57"/>
+      <c r="AH51" s="57"/>
+      <c r="AI51" s="58"/>
+    </row>
+    <row r="52" spans="2:35">
+      <c r="B52" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="49"/>
+      <c r="V52" s="49"/>
+      <c r="W52" s="49"/>
+      <c r="X52" s="49"/>
+      <c r="Y52" s="49"/>
+      <c r="Z52" s="49"/>
+      <c r="AA52" s="49"/>
+      <c r="AB52" s="49"/>
+      <c r="AC52" s="49"/>
+      <c r="AD52" s="49"/>
+      <c r="AE52" s="49"/>
+      <c r="AF52" s="49"/>
+      <c r="AG52" s="49"/>
+      <c r="AH52" s="49"/>
+      <c r="AI52" s="50"/>
+    </row>
+    <row r="53" spans="2:35">
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="49"/>
+      <c r="V53" s="49"/>
+      <c r="W53" s="49"/>
+      <c r="X53" s="49"/>
+      <c r="Y53" s="49"/>
+      <c r="Z53" s="49"/>
+      <c r="AA53" s="49"/>
+      <c r="AB53" s="49"/>
+      <c r="AC53" s="49"/>
+      <c r="AD53" s="49"/>
+      <c r="AE53" s="49"/>
+      <c r="AF53" s="49"/>
+      <c r="AG53" s="49"/>
+      <c r="AH53" s="49"/>
+      <c r="AI53" s="50"/>
+    </row>
+    <row r="54" spans="2:35">
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="49"/>
+      <c r="W54" s="49"/>
+      <c r="X54" s="49"/>
+      <c r="Y54" s="49"/>
+      <c r="Z54" s="49"/>
+      <c r="AA54" s="49"/>
+      <c r="AB54" s="49"/>
+      <c r="AC54" s="49"/>
+      <c r="AD54" s="49"/>
+      <c r="AE54" s="49"/>
+      <c r="AF54" s="49"/>
+      <c r="AG54" s="49"/>
+      <c r="AH54" s="49"/>
+      <c r="AI54" s="50"/>
+    </row>
+    <row r="55" spans="2:35">
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="49"/>
+      <c r="Z55" s="49"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="49"/>
+      <c r="AC55" s="49"/>
+      <c r="AD55" s="49"/>
+      <c r="AE55" s="49"/>
+      <c r="AF55" s="49"/>
+      <c r="AG55" s="49"/>
+      <c r="AH55" s="49"/>
+      <c r="AI55" s="50"/>
+    </row>
+    <row r="56" spans="2:35">
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="49"/>
+      <c r="W56" s="49"/>
+      <c r="X56" s="49"/>
+      <c r="Y56" s="49"/>
+      <c r="Z56" s="49"/>
+      <c r="AA56" s="49"/>
+      <c r="AB56" s="49"/>
+      <c r="AC56" s="49"/>
+      <c r="AD56" s="49"/>
+      <c r="AE56" s="49"/>
+      <c r="AF56" s="49"/>
+      <c r="AG56" s="49"/>
+      <c r="AH56" s="49"/>
+      <c r="AI56" s="50"/>
+    </row>
+    <row r="57" spans="2:35">
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="49"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="49"/>
+      <c r="V57" s="49"/>
+      <c r="W57" s="49"/>
+      <c r="X57" s="49"/>
+      <c r="Y57" s="49"/>
+      <c r="Z57" s="49"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="49"/>
+      <c r="AC57" s="49"/>
+      <c r="AD57" s="49"/>
+      <c r="AE57" s="49"/>
+      <c r="AF57" s="49"/>
+      <c r="AG57" s="49"/>
+      <c r="AH57" s="49"/>
+      <c r="AI57" s="50"/>
+    </row>
+    <row r="58" spans="2:35" ht="14.5" thickBot="1">
+      <c r="B58" s="103"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="104"/>
+      <c r="N58" s="104"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="104"/>
+      <c r="Q58" s="104"/>
+      <c r="R58" s="104"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="104"/>
+      <c r="U58" s="104"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
+      <c r="X58" s="104"/>
+      <c r="Y58" s="104"/>
+      <c r="Z58" s="104"/>
+      <c r="AA58" s="104"/>
+      <c r="AB58" s="104"/>
+      <c r="AC58" s="104"/>
+      <c r="AD58" s="104"/>
+      <c r="AE58" s="104"/>
+      <c r="AF58" s="104"/>
+      <c r="AG58" s="104"/>
+      <c r="AH58" s="104"/>
+      <c r="AI58" s="105"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
+  <mergeCells count="10">
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AI3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:Z2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1777,30 +6641,30 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
@@ -1808,23 +6672,23 @@
       </c>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
         <v>12</v>

--- a/DOC/基本設計/社内管理_⑪基本給_マスタ機能.xlsx
+++ b/DOC/基本設計/社内管理_⑪基本給_マスタ機能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\孙晔\git\ems\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE423BE0-B04B-4CCD-B361-4142A7B75B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E56515-EC33-4F46-9508-D04150EB58E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,15 +26,12 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="__ＩＯ２" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="_a1">#REF!</definedName>
     <definedName name="_ＩＯ２" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="DB属性">[2]CODE!$H$3:$H$13</definedName>
+    <definedName name="DB属性">[1]CODE!$H$3:$H$13</definedName>
     <definedName name="HH" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="HH" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="HTML_CodePage" hidden="1">932</definedName>
@@ -703,7 +700,7 @@
     <definedName name="HTMLCount" hidden="1">54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$X$44</definedName>
     <definedName name="Print_Title">#REF!</definedName>
-    <definedName name="S_GAIIRAI_3">[4]外注業務_3!#REF!</definedName>
+    <definedName name="S_GAIIRAI_3">[2]外注業務_3!#REF!</definedName>
     <definedName name="S_GAIRAI_31">#REF!</definedName>
     <definedName name="SSGAIIRAI_3">#REF!</definedName>
     <definedName name="STGAIIRAI_3">#REF!</definedName>
@@ -722,13 +719,14 @@
     <definedName name="スケジュール" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="スケジュールORG" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="スケジュールORG" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="ソフト名">[6]定数!$B$2:$B$6</definedName>
-    <definedName name="可否" localSheetId="0">[7]定数!$A$2:$A$4</definedName>
-    <definedName name="可否">[6]定数!$A$2:$A$4</definedName>
-    <definedName name="詳細有り無しリスト">[8]リスト!$C$1:$C$2</definedName>
-    <definedName name="質問者リスト">[8]リスト!$A$1:$A$10</definedName>
+    <definedName name="ソフト名">[3]定数!$B$2:$B$6</definedName>
+    <definedName name="可否" localSheetId="0">[4]定数!$A$2:$A$4</definedName>
+    <definedName name="可否">[3]定数!$A$2:$A$4</definedName>
+    <definedName name="詳細有り無しリスト">[5]リスト!$C$1:$C$2</definedName>
+    <definedName name="質問者リスト">[5]リスト!$A$1:$A$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -746,7 +744,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -1066,10 +1064,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>など</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>S0002</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1450,6 +1444,22 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登録ボタンを押した後、DBにデーターを入力します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>検索ボタン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2123,6 +2133,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2174,188 +2316,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2380,16 +2390,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>40411</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:colOff>981365</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102466</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2404,8 +2414,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="974725"/>
-          <a:ext cx="482600" cy="247650"/>
+          <a:off x="1639456" y="3168939"/>
+          <a:ext cx="940954" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2436,74 +2446,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>作成</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>79376</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>296334</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C2C807-C209-4730-AB6B-43627CE84A40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1609725" y="978959"/>
-          <a:ext cx="1147233" cy="216958"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>前月</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3062,25 +3004,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="2.2"/>
-      <sheetName val="帳票一覧"/>
-      <sheetName val="設計条件表・機能変更概要 (サーバ)"/>
-      <sheetName val="帳票項目説明（明細部）"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="表紙"/>
       <sheetName val="メンテナンス表"/>
       <sheetName val="1.画面レイアウト"/>
@@ -3104,26 +3027,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="入出力項目定義書"/>
-      <sheetName val="画面レイアウト"/>
-      <sheetName val="詳細"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3154,20 +3058,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="メイン"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3186,7 +3077,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3205,7 +3096,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3494,406 +3385,406 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.25" style="69"/>
-    <col min="22" max="22" width="5.25" style="68"/>
-    <col min="23" max="23" width="5.25" style="69"/>
-    <col min="24" max="16384" width="5.25" style="68"/>
+    <col min="1" max="21" width="5.25" style="38"/>
+    <col min="22" max="22" width="5.25" style="37"/>
+    <col min="23" max="23" width="5.25" style="38"/>
+    <col min="24" max="16384" width="5.25" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="70" customFormat="1">
-      <c r="A1" s="98"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="96"/>
-    </row>
-    <row r="2" spans="1:24" s="70" customFormat="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="95"/>
-      <c r="X2" s="74"/>
-    </row>
-    <row r="3" spans="1:24" s="70" customFormat="1">
-      <c r="A3" s="75"/>
-      <c r="X3" s="74"/>
-    </row>
-    <row r="4" spans="1:24" s="70" customFormat="1">
-      <c r="A4" s="75"/>
-      <c r="X4" s="74"/>
-    </row>
-    <row r="5" spans="1:24" s="70" customFormat="1">
-      <c r="A5" s="75"/>
-      <c r="X5" s="74"/>
-    </row>
-    <row r="6" spans="1:24" s="70" customFormat="1">
-      <c r="A6" s="75"/>
-      <c r="X6" s="74"/>
-    </row>
-    <row r="7" spans="1:24" s="70" customFormat="1">
-      <c r="A7" s="75"/>
-      <c r="X7" s="74"/>
-    </row>
-    <row r="8" spans="1:24" s="70" customFormat="1">
-      <c r="A8" s="75"/>
-      <c r="X8" s="74"/>
-    </row>
-    <row r="9" spans="1:24" s="70" customFormat="1">
-      <c r="A9" s="75"/>
-      <c r="X9" s="74"/>
-    </row>
-    <row r="10" spans="1:24" s="70" customFormat="1">
-      <c r="A10" s="75"/>
-      <c r="X10" s="74"/>
-    </row>
-    <row r="11" spans="1:24" s="70" customFormat="1">
-      <c r="A11" s="75"/>
-      <c r="X11" s="74"/>
-    </row>
-    <row r="12" spans="1:24" s="70" customFormat="1">
-      <c r="A12" s="75"/>
-      <c r="X12" s="74"/>
-    </row>
-    <row r="13" spans="1:24" s="70" customFormat="1">
-      <c r="A13" s="75"/>
-      <c r="X13" s="74"/>
-    </row>
-    <row r="14" spans="1:24" s="70" customFormat="1">
-      <c r="A14" s="75"/>
-      <c r="X14" s="74"/>
-    </row>
-    <row r="15" spans="1:24" s="70" customFormat="1" ht="23.5">
-      <c r="A15" s="75"/>
-      <c r="I15" s="94" t="s">
+    <row r="1" spans="1:24" s="39" customFormat="1">
+      <c r="A1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="47"/>
+    </row>
+    <row r="2" spans="1:24" s="39" customFormat="1">
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="X2" s="43"/>
+    </row>
+    <row r="3" spans="1:24" s="39" customFormat="1">
+      <c r="A3" s="44"/>
+      <c r="X3" s="43"/>
+    </row>
+    <row r="4" spans="1:24" s="39" customFormat="1">
+      <c r="A4" s="44"/>
+      <c r="X4" s="43"/>
+    </row>
+    <row r="5" spans="1:24" s="39" customFormat="1">
+      <c r="A5" s="44"/>
+      <c r="X5" s="43"/>
+    </row>
+    <row r="6" spans="1:24" s="39" customFormat="1">
+      <c r="A6" s="44"/>
+      <c r="X6" s="43"/>
+    </row>
+    <row r="7" spans="1:24" s="39" customFormat="1">
+      <c r="A7" s="44"/>
+      <c r="X7" s="43"/>
+    </row>
+    <row r="8" spans="1:24" s="39" customFormat="1">
+      <c r="A8" s="44"/>
+      <c r="X8" s="43"/>
+    </row>
+    <row r="9" spans="1:24" s="39" customFormat="1">
+      <c r="A9" s="44"/>
+      <c r="X9" s="43"/>
+    </row>
+    <row r="10" spans="1:24" s="39" customFormat="1">
+      <c r="A10" s="44"/>
+      <c r="X10" s="43"/>
+    </row>
+    <row r="11" spans="1:24" s="39" customFormat="1">
+      <c r="A11" s="44"/>
+      <c r="X11" s="43"/>
+    </row>
+    <row r="12" spans="1:24" s="39" customFormat="1">
+      <c r="A12" s="44"/>
+      <c r="X12" s="43"/>
+    </row>
+    <row r="13" spans="1:24" s="39" customFormat="1">
+      <c r="A13" s="44"/>
+      <c r="X13" s="43"/>
+    </row>
+    <row r="14" spans="1:24" s="39" customFormat="1">
+      <c r="A14" s="44"/>
+      <c r="X14" s="43"/>
+    </row>
+    <row r="15" spans="1:24" s="39" customFormat="1" ht="23.5">
+      <c r="A15" s="44"/>
+      <c r="I15" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="X15" s="43"/>
+    </row>
+    <row r="16" spans="1:24" s="39" customFormat="1">
+      <c r="A16" s="44"/>
+      <c r="X16" s="43"/>
+    </row>
+    <row r="17" spans="1:24" s="39" customFormat="1">
+      <c r="A17" s="44"/>
+      <c r="X17" s="43"/>
+    </row>
+    <row r="18" spans="1:24" s="39" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="44"/>
+      <c r="G18" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="57"/>
+      <c r="X18" s="43"/>
+    </row>
+    <row r="19" spans="1:24" s="39" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="44"/>
+      <c r="G19" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="68"/>
+      <c r="X19" s="43"/>
+    </row>
+    <row r="20" spans="1:24" s="39" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A20" s="44"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="71"/>
+      <c r="X20" s="43"/>
+    </row>
+    <row r="21" spans="1:24" s="39" customFormat="1">
+      <c r="A21" s="44"/>
+      <c r="X21" s="43"/>
+    </row>
+    <row r="22" spans="1:24" s="39" customFormat="1" ht="13">
+      <c r="A22" s="44"/>
+      <c r="G22" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="59"/>
+      <c r="X22" s="43"/>
+    </row>
+    <row r="23" spans="1:24" s="39" customFormat="1">
+      <c r="A23" s="44"/>
+      <c r="G23" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="X15" s="74"/>
-    </row>
-    <row r="16" spans="1:24" s="70" customFormat="1">
-      <c r="A16" s="75"/>
-      <c r="X16" s="74"/>
-    </row>
-    <row r="17" spans="1:24" s="70" customFormat="1">
-      <c r="A17" s="75"/>
-      <c r="X17" s="74"/>
-    </row>
-    <row r="18" spans="1:24" s="70" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="75"/>
-      <c r="G18" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="92"/>
-      <c r="X18" s="74"/>
-    </row>
-    <row r="19" spans="1:24" s="70" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="75"/>
-      <c r="G19" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="89"/>
-      <c r="X19" s="74"/>
-    </row>
-    <row r="20" spans="1:24" s="70" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="86"/>
-      <c r="X20" s="74"/>
-    </row>
-    <row r="21" spans="1:24" s="70" customFormat="1">
-      <c r="A21" s="75"/>
-      <c r="X21" s="74"/>
-    </row>
-    <row r="22" spans="1:24" s="70" customFormat="1" ht="13">
-      <c r="A22" s="75"/>
-      <c r="G22" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="83"/>
-      <c r="X22" s="74"/>
-    </row>
-    <row r="23" spans="1:24" s="70" customFormat="1">
-      <c r="A23" s="75"/>
-      <c r="G23" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="80"/>
-      <c r="X23" s="74"/>
-    </row>
-    <row r="24" spans="1:24" s="70" customFormat="1">
-      <c r="A24" s="75"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="77"/>
-      <c r="X24" s="74"/>
-    </row>
-    <row r="25" spans="1:24" s="70" customFormat="1">
-      <c r="A25" s="75"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="X25" s="74"/>
-    </row>
-    <row r="26" spans="1:24" s="70" customFormat="1" ht="13">
-      <c r="A26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="X26" s="74"/>
-    </row>
-    <row r="27" spans="1:24" s="70" customFormat="1">
-      <c r="A27" s="75"/>
-      <c r="X27" s="74"/>
-    </row>
-    <row r="28" spans="1:24" s="70" customFormat="1">
-      <c r="A28" s="75"/>
-      <c r="X28" s="74"/>
-    </row>
-    <row r="29" spans="1:24" s="70" customFormat="1">
-      <c r="A29" s="75"/>
-      <c r="X29" s="74"/>
-    </row>
-    <row r="30" spans="1:24" s="70" customFormat="1">
-      <c r="A30" s="75"/>
-      <c r="X30" s="74"/>
-    </row>
-    <row r="31" spans="1:24" s="70" customFormat="1">
-      <c r="A31" s="75"/>
-      <c r="X31" s="74"/>
-    </row>
-    <row r="32" spans="1:24" s="70" customFormat="1">
-      <c r="A32" s="75"/>
-      <c r="X32" s="74"/>
-    </row>
-    <row r="33" spans="1:24" s="70" customFormat="1">
-      <c r="A33" s="75"/>
-      <c r="K33" s="69"/>
-      <c r="X33" s="74"/>
-    </row>
-    <row r="34" spans="1:24" s="70" customFormat="1">
-      <c r="A34" s="75"/>
-      <c r="K34" s="69"/>
-      <c r="X34" s="74"/>
-    </row>
-    <row r="35" spans="1:24" s="70" customFormat="1">
-      <c r="A35" s="75"/>
-      <c r="K35" s="69"/>
-      <c r="X35" s="74"/>
-    </row>
-    <row r="36" spans="1:24" s="70" customFormat="1">
-      <c r="A36" s="75"/>
-      <c r="X36" s="74"/>
-    </row>
-    <row r="37" spans="1:24" s="70" customFormat="1">
-      <c r="A37" s="75"/>
-      <c r="X37" s="74"/>
-    </row>
-    <row r="38" spans="1:24" s="70" customFormat="1">
-      <c r="A38" s="75"/>
-      <c r="K38" s="69"/>
-      <c r="X38" s="74"/>
-    </row>
-    <row r="39" spans="1:24" s="70" customFormat="1">
-      <c r="A39" s="75"/>
-      <c r="X39" s="74"/>
-    </row>
-    <row r="40" spans="1:24" s="70" customFormat="1">
-      <c r="A40" s="75"/>
-      <c r="X40" s="74"/>
-    </row>
-    <row r="41" spans="1:24" s="70" customFormat="1">
-      <c r="A41" s="75"/>
-      <c r="X41" s="74"/>
-    </row>
-    <row r="42" spans="1:24" s="70" customFormat="1">
-      <c r="A42" s="75"/>
-      <c r="X42" s="74"/>
-    </row>
-    <row r="43" spans="1:24" s="70" customFormat="1">
-      <c r="A43" s="75"/>
-      <c r="X43" s="74"/>
-    </row>
-    <row r="44" spans="1:24" s="70" customFormat="1">
-      <c r="A44" s="73"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="71"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="62"/>
+      <c r="X23" s="43"/>
+    </row>
+    <row r="24" spans="1:24" s="39" customFormat="1">
+      <c r="A24" s="44"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="65"/>
+      <c r="X24" s="43"/>
+    </row>
+    <row r="25" spans="1:24" s="39" customFormat="1">
+      <c r="A25" s="44"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="X25" s="43"/>
+    </row>
+    <row r="26" spans="1:24" s="39" customFormat="1" ht="13">
+      <c r="A26" s="44"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="X26" s="43"/>
+    </row>
+    <row r="27" spans="1:24" s="39" customFormat="1">
+      <c r="A27" s="44"/>
+      <c r="X27" s="43"/>
+    </row>
+    <row r="28" spans="1:24" s="39" customFormat="1">
+      <c r="A28" s="44"/>
+      <c r="X28" s="43"/>
+    </row>
+    <row r="29" spans="1:24" s="39" customFormat="1">
+      <c r="A29" s="44"/>
+      <c r="X29" s="43"/>
+    </row>
+    <row r="30" spans="1:24" s="39" customFormat="1">
+      <c r="A30" s="44"/>
+      <c r="X30" s="43"/>
+    </row>
+    <row r="31" spans="1:24" s="39" customFormat="1">
+      <c r="A31" s="44"/>
+      <c r="X31" s="43"/>
+    </row>
+    <row r="32" spans="1:24" s="39" customFormat="1">
+      <c r="A32" s="44"/>
+      <c r="X32" s="43"/>
+    </row>
+    <row r="33" spans="1:24" s="39" customFormat="1">
+      <c r="A33" s="44"/>
+      <c r="K33" s="38"/>
+      <c r="X33" s="43"/>
+    </row>
+    <row r="34" spans="1:24" s="39" customFormat="1">
+      <c r="A34" s="44"/>
+      <c r="K34" s="38"/>
+      <c r="X34" s="43"/>
+    </row>
+    <row r="35" spans="1:24" s="39" customFormat="1">
+      <c r="A35" s="44"/>
+      <c r="K35" s="38"/>
+      <c r="X35" s="43"/>
+    </row>
+    <row r="36" spans="1:24" s="39" customFormat="1">
+      <c r="A36" s="44"/>
+      <c r="X36" s="43"/>
+    </row>
+    <row r="37" spans="1:24" s="39" customFormat="1">
+      <c r="A37" s="44"/>
+      <c r="X37" s="43"/>
+    </row>
+    <row r="38" spans="1:24" s="39" customFormat="1">
+      <c r="A38" s="44"/>
+      <c r="K38" s="38"/>
+      <c r="X38" s="43"/>
+    </row>
+    <row r="39" spans="1:24" s="39" customFormat="1">
+      <c r="A39" s="44"/>
+      <c r="X39" s="43"/>
+    </row>
+    <row r="40" spans="1:24" s="39" customFormat="1">
+      <c r="A40" s="44"/>
+      <c r="X40" s="43"/>
+    </row>
+    <row r="41" spans="1:24" s="39" customFormat="1">
+      <c r="A41" s="44"/>
+      <c r="X41" s="43"/>
+    </row>
+    <row r="42" spans="1:24" s="39" customFormat="1">
+      <c r="A42" s="44"/>
+      <c r="X42" s="43"/>
+    </row>
+    <row r="43" spans="1:24" s="39" customFormat="1">
+      <c r="A43" s="44"/>
+      <c r="X43" s="43"/>
+    </row>
+    <row r="44" spans="1:24" s="39" customFormat="1">
+      <c r="A44" s="42"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="40"/>
     </row>
     <row r="49" spans="4:11">
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
     </row>
     <row r="50" spans="4:11">
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
     </row>
     <row r="51" spans="4:11">
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
     </row>
     <row r="52" spans="4:11">
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
     </row>
     <row r="53" spans="4:11">
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
     </row>
     <row r="54" spans="4:11">
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3927,12 +3818,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="2:5" ht="14.5" thickBot="1">
       <c r="B3" s="1" t="s">
@@ -4067,14 +3958,14 @@
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
@@ -4089,16 +3980,16 @@
       <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="73"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
         <v>12</v>
@@ -4115,104 +4006,104 @@
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
     </row>
     <row r="6" spans="2:12" ht="18.5" customHeight="1">
       <c r="B6" s="11"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="2:12" ht="18.5" customHeight="1">
       <c r="B7" s="11"/>
       <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
     </row>
     <row r="8" spans="2:12" ht="18.5" customHeight="1">
       <c r="B8" s="11"/>
       <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
     </row>
     <row r="9" spans="2:12" ht="18.5" customHeight="1">
       <c r="B9" s="11"/>
       <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
     </row>
     <row r="10" spans="2:12" ht="18.5" customHeight="1">
       <c r="B10" s="11"/>
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
     </row>
     <row r="11" spans="2:12" ht="18.5" customHeight="1">
       <c r="B11" s="11"/>
       <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
     </row>
     <row r="12" spans="2:12" ht="18.5" customHeight="1">
       <c r="B12" s="11"/>
       <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="78">
         <v>1</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80"/>
     </row>
     <row r="13" spans="2:12" ht="18.5" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
     </row>
     <row r="14" spans="2:12" ht="18.5" customHeight="1">
       <c r="B14" s="11"/>
       <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" spans="2:12">
       <c r="C15" s="13"/>
@@ -4240,18 +4131,18 @@
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4279,10 +4170,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642415E2-172E-4181-99B2-6593F8487555}">
-  <dimension ref="B2:AL46"/>
+  <dimension ref="B2:AL48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4299,20 +4190,21 @@
     <col min="18" max="18" width="3.08203125" customWidth="1"/>
     <col min="20" max="20" width="3.08203125" customWidth="1"/>
     <col min="22" max="22" width="5.4140625" customWidth="1"/>
+    <col min="23" max="23" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:38">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
@@ -4327,16 +4219,16 @@
       <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="73"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
         <v>12</v>
@@ -4344,491 +4236,492 @@
       <c r="L3" s="10"/>
     </row>
     <row r="5" spans="2:38">
-      <c r="B5" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="50"/>
+      <c r="B5" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="30"/>
     </row>
     <row r="6" spans="2:38" ht="27.5" customHeight="1">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="50"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="30"/>
     </row>
     <row r="7" spans="2:38">
-      <c r="B7" s="48"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="60"/>
+      <c r="G7" s="97"/>
       <c r="H7" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59" t="s">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="62" t="s">
+      <c r="M7" s="36"/>
+      <c r="N7" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62" t="s">
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62" t="s">
+      <c r="R7" s="96"/>
+      <c r="S7" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62" t="s">
+      <c r="T7" s="96"/>
+      <c r="U7" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="62"/>
+      <c r="V7" s="96"/>
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="2:38" ht="21.5" customHeight="1">
-      <c r="B8" s="48"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="61" t="s">
+      <c r="E8" s="95"/>
+      <c r="F8" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="66">
+      <c r="G8" s="98"/>
+      <c r="H8" s="91">
         <v>255555</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="54">
+      <c r="I8" s="92"/>
+      <c r="J8" s="89">
         <v>6666</v>
       </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="54">
+      <c r="K8" s="90"/>
+      <c r="L8" s="89">
         <v>7777</v>
       </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="63" t="s">
+      <c r="M8" s="90"/>
+      <c r="N8" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63" t="s">
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63" t="s">
+      <c r="R8" s="94"/>
+      <c r="S8" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="T8" s="63"/>
-      <c r="U8" s="64" t="s">
+      <c r="T8" s="94"/>
+      <c r="U8" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="64"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38">
+      <c r="B9" s="28"/>
+      <c r="C9" s="36" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="2:38">
-      <c r="B9" s="48"/>
-      <c r="C9" s="59" t="s">
+      <c r="D9" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="E9" s="95"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="2:38">
+      <c r="B10" s="28"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="2:38">
+      <c r="B11" s="28"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="2:38">
+      <c r="B12" s="28"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="2:38">
+      <c r="B13" s="28"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="2:38">
+      <c r="B14" s="28"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15" spans="2:38">
+      <c r="B15" s="28"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="2:38">
+      <c r="B16" s="28"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="10"/>
+      <c r="AC16" s="30"/>
+    </row>
+    <row r="17" spans="2:38">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="30"/>
+    </row>
+    <row r="18" spans="2:38">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="35"/>
+    </row>
+    <row r="20" spans="2:38">
+      <c r="B20" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="8"/>
-    </row>
-    <row r="10" spans="2:38">
-      <c r="B10" s="48"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="8"/>
-    </row>
-    <row r="11" spans="2:38">
-      <c r="B11" s="48"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="8"/>
-    </row>
-    <row r="12" spans="2:38">
-      <c r="B12" s="48"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="8"/>
-    </row>
-    <row r="13" spans="2:38">
-      <c r="B13" s="48"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="8"/>
-    </row>
-    <row r="14" spans="2:38">
-      <c r="B14" s="48"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="8"/>
-    </row>
-    <row r="15" spans="2:38">
-      <c r="B15" s="48"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="8"/>
-    </row>
-    <row r="16" spans="2:38">
-      <c r="B16" s="48"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="10"/>
-      <c r="AC16" s="50"/>
-    </row>
-    <row r="17" spans="2:38">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="49"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="50"/>
-    </row>
-    <row r="18" spans="2:38">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="58"/>
-    </row>
-    <row r="20" spans="2:38">
-      <c r="B20" s="48" t="s">
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="2:38">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="49"/>
-    </row>
-    <row r="21" spans="2:38">
-      <c r="B21" s="48"/>
-      <c r="C21" s="49" t="s">
+    </row>
+    <row r="22" spans="2:38">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="2:38">
-      <c r="B22" s="48"/>
-      <c r="C22" s="49" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="23" spans="2:38">
-      <c r="B23" s="48"/>
-      <c r="C23" s="49" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:38">
-      <c r="B24" s="48"/>
-      <c r="C24" s="49" t="s">
+    <row r="25" spans="2:38">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="2:38">
-      <c r="B25" s="48"/>
-      <c r="C25" s="49" t="s">
+    <row r="26" spans="2:38">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="2:38">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:38">
@@ -4841,9 +4734,9 @@
       <c r="C31" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:38">
@@ -4851,11 +4744,11 @@
       <c r="C32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7">
@@ -4863,11 +4756,11 @@
       <c r="C33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7">
@@ -4956,7 +4849,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="22" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="G41" s="16"/>
     </row>
@@ -4987,43 +4880,55 @@
       </c>
       <c r="D46" s="26"/>
     </row>
+    <row r="48" spans="2:7">
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="N7:P7"/>
@@ -5040,48 +4945,41 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5132,94 +5030,94 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:35" ht="17.5">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="53" t="s">
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="100" t="s">
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+    </row>
+    <row r="3" spans="2:35" ht="14.5" thickBot="1">
+      <c r="B3" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-    </row>
-    <row r="3" spans="2:35" ht="14.5" thickBot="1">
-      <c r="B3" s="101" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101" t="s">
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101" t="s">
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101" t="s">
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="101"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
     </row>
     <row r="4" spans="2:35" ht="14.5" thickTop="1">
       <c r="B4" t="s">
@@ -5293,1326 +5191,1326 @@
       </c>
     </row>
     <row r="24" spans="2:35">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="50"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="30"/>
     </row>
     <row r="25" spans="2:35">
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="50"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="30"/>
     </row>
     <row r="26" spans="2:35">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49" t="s">
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="30"/>
+    </row>
+    <row r="27" spans="2:35">
+      <c r="B27" s="28"/>
+      <c r="C27" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="50"/>
-    </row>
-    <row r="27" spans="2:35">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="30"/>
+    </row>
+    <row r="28" spans="2:35">
+      <c r="B28" s="28"/>
+      <c r="C28" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="49"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="50"/>
-    </row>
-    <row r="28" spans="2:35">
-      <c r="B28" s="48"/>
-      <c r="C28" s="49" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49" t="s">
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="30"/>
+    </row>
+    <row r="29" spans="2:35">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="49"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="49"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="50"/>
-    </row>
-    <row r="29" spans="2:35">
-      <c r="B29" s="48"/>
-      <c r="C29" s="49" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="52" t="s">
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="30"/>
+    </row>
+    <row r="30" spans="2:35">
+      <c r="B30" s="28"/>
+      <c r="C30" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-      <c r="AB29" s="49"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="50"/>
-    </row>
-    <row r="30" spans="2:35">
-      <c r="B30" s="48"/>
-      <c r="C30" s="49" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="30"/>
+    </row>
+    <row r="31" spans="2:35">
+      <c r="B31" s="28"/>
+      <c r="C31" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="49"/>
-      <c r="AB30" s="49"/>
-      <c r="AC30" s="49"/>
-      <c r="AD30" s="49"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="50"/>
-    </row>
-    <row r="31" spans="2:35">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="52" t="s">
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="30"/>
+    </row>
+    <row r="32" spans="2:35">
+      <c r="B32" s="28"/>
+      <c r="C32" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="50"/>
-    </row>
-    <row r="32" spans="2:35">
-      <c r="B32" s="48"/>
-      <c r="C32" s="49" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="52" t="s">
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="30"/>
+    </row>
+    <row r="33" spans="2:35">
+      <c r="B33" s="28"/>
+      <c r="C33" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="50"/>
-    </row>
-    <row r="33" spans="2:35">
-      <c r="B33" s="48"/>
-      <c r="C33" s="49" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="30"/>
+    </row>
+    <row r="34" spans="2:35">
+      <c r="B34" s="28"/>
+      <c r="C34" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="50"/>
-    </row>
-    <row r="34" spans="2:35">
-      <c r="B34" s="48"/>
-      <c r="C34" s="49" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49" t="s">
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="30"/>
+    </row>
+    <row r="35" spans="2:35">
+      <c r="B35" s="28"/>
+      <c r="C35" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="49"/>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="49"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="50"/>
-    </row>
-    <row r="35" spans="2:35">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="30"/>
+    </row>
+    <row r="36" spans="2:35">
+      <c r="B36" s="28"/>
+      <c r="C36" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="49"/>
-      <c r="AD35" s="49"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="50"/>
-    </row>
-    <row r="36" spans="2:35">
-      <c r="B36" s="48"/>
-      <c r="C36" s="49" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="29"/>
+      <c r="AI36" s="30"/>
+    </row>
+    <row r="37" spans="2:35">
+      <c r="B37" s="28"/>
+      <c r="C37" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="49"/>
-      <c r="AD36" s="49"/>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="49"/>
-      <c r="AG36" s="49"/>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="50"/>
-    </row>
-    <row r="37" spans="2:35">
-      <c r="B37" s="48"/>
-      <c r="C37" s="49" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="30"/>
+    </row>
+    <row r="38" spans="2:35">
+      <c r="B38" s="28"/>
+      <c r="C38" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="49"/>
-      <c r="AB37" s="49"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="49"/>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="50"/>
-    </row>
-    <row r="38" spans="2:35">
-      <c r="B38" s="48"/>
-      <c r="C38" s="49" t="s">
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="30"/>
+    </row>
+    <row r="39" spans="2:35">
+      <c r="B39" s="28"/>
+      <c r="C39" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
-      <c r="Y38" s="49"/>
-      <c r="Z38" s="49"/>
-      <c r="AA38" s="49"/>
-      <c r="AB38" s="49"/>
-      <c r="AC38" s="49"/>
-      <c r="AD38" s="49"/>
-      <c r="AE38" s="49"/>
-      <c r="AF38" s="49"/>
-      <c r="AG38" s="49"/>
-      <c r="AH38" s="49"/>
-      <c r="AI38" s="50"/>
-    </row>
-    <row r="39" spans="2:35">
-      <c r="B39" s="48"/>
-      <c r="C39" s="49" t="s">
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="30"/>
+    </row>
+    <row r="40" spans="2:35">
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="30"/>
+    </row>
+    <row r="41" spans="2:35">
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="30"/>
+    </row>
+    <row r="42" spans="2:35">
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="29"/>
+      <c r="AI42" s="30"/>
+    </row>
+    <row r="43" spans="2:35">
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="30"/>
+    </row>
+    <row r="44" spans="2:35">
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="30"/>
+    </row>
+    <row r="45" spans="2:35">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
+      <c r="AG45" s="34"/>
+      <c r="AH45" s="34"/>
+      <c r="AI45" s="35"/>
+    </row>
+    <row r="46" spans="2:35">
+      <c r="B46" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="30"/>
+    </row>
+    <row r="47" spans="2:35">
+      <c r="B47" s="28"/>
+      <c r="C47" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AE39" s="49"/>
-      <c r="AF39" s="49"/>
-      <c r="AG39" s="49"/>
-      <c r="AH39" s="49"/>
-      <c r="AI39" s="50"/>
-    </row>
-    <row r="40" spans="2:35">
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="49"/>
-      <c r="W40" s="49"/>
-      <c r="X40" s="49"/>
-      <c r="Y40" s="49"/>
-      <c r="Z40" s="49"/>
-      <c r="AA40" s="49"/>
-      <c r="AB40" s="49"/>
-      <c r="AC40" s="49"/>
-      <c r="AD40" s="49"/>
-      <c r="AE40" s="49"/>
-      <c r="AF40" s="49"/>
-      <c r="AG40" s="49"/>
-      <c r="AH40" s="49"/>
-      <c r="AI40" s="50"/>
-    </row>
-    <row r="41" spans="2:35">
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="49"/>
-      <c r="V41" s="49"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="49"/>
-      <c r="Y41" s="49"/>
-      <c r="Z41" s="49"/>
-      <c r="AA41" s="49"/>
-      <c r="AB41" s="49"/>
-      <c r="AC41" s="49"/>
-      <c r="AD41" s="49"/>
-      <c r="AE41" s="49"/>
-      <c r="AF41" s="49"/>
-      <c r="AG41" s="49"/>
-      <c r="AH41" s="49"/>
-      <c r="AI41" s="50"/>
-    </row>
-    <row r="42" spans="2:35">
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="49"/>
-      <c r="W42" s="49"/>
-      <c r="X42" s="49"/>
-      <c r="Y42" s="49"/>
-      <c r="Z42" s="49"/>
-      <c r="AA42" s="49"/>
-      <c r="AB42" s="49"/>
-      <c r="AC42" s="49"/>
-      <c r="AD42" s="49"/>
-      <c r="AE42" s="49"/>
-      <c r="AF42" s="49"/>
-      <c r="AG42" s="49"/>
-      <c r="AH42" s="49"/>
-      <c r="AI42" s="50"/>
-    </row>
-    <row r="43" spans="2:35">
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="49"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="49"/>
-      <c r="AA43" s="49"/>
-      <c r="AB43" s="49"/>
-      <c r="AC43" s="49"/>
-      <c r="AD43" s="49"/>
-      <c r="AE43" s="49"/>
-      <c r="AF43" s="49"/>
-      <c r="AG43" s="49"/>
-      <c r="AH43" s="49"/>
-      <c r="AI43" s="50"/>
-    </row>
-    <row r="44" spans="2:35">
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="49"/>
-      <c r="W44" s="49"/>
-      <c r="X44" s="49"/>
-      <c r="Y44" s="49"/>
-      <c r="Z44" s="49"/>
-      <c r="AA44" s="49"/>
-      <c r="AB44" s="49"/>
-      <c r="AC44" s="49"/>
-      <c r="AD44" s="49"/>
-      <c r="AE44" s="49"/>
-      <c r="AF44" s="49"/>
-      <c r="AG44" s="49"/>
-      <c r="AH44" s="49"/>
-      <c r="AI44" s="50"/>
-    </row>
-    <row r="45" spans="2:35">
-      <c r="B45" s="56"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="57"/>
-      <c r="S45" s="57"/>
-      <c r="T45" s="57"/>
-      <c r="U45" s="57"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="57"/>
-      <c r="Y45" s="57"/>
-      <c r="Z45" s="57"/>
-      <c r="AA45" s="57"/>
-      <c r="AB45" s="57"/>
-      <c r="AC45" s="57"/>
-      <c r="AD45" s="57"/>
-      <c r="AE45" s="57"/>
-      <c r="AF45" s="57"/>
-      <c r="AG45" s="57"/>
-      <c r="AH45" s="57"/>
-      <c r="AI45" s="58"/>
-    </row>
-    <row r="46" spans="2:35">
-      <c r="B46" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="49"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="49"/>
-      <c r="AC46" s="49"/>
-      <c r="AD46" s="49"/>
-      <c r="AE46" s="49"/>
-      <c r="AF46" s="49"/>
-      <c r="AG46" s="49"/>
-      <c r="AH46" s="49"/>
-      <c r="AI46" s="50"/>
-    </row>
-    <row r="47" spans="2:35">
-      <c r="B47" s="48"/>
-      <c r="C47" s="49" t="s">
+      <c r="D47" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="30"/>
+    </row>
+    <row r="48" spans="2:35">
+      <c r="B48" s="28"/>
+      <c r="C48" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="49"/>
-      <c r="Z47" s="49"/>
-      <c r="AA47" s="49"/>
-      <c r="AB47" s="49"/>
-      <c r="AC47" s="49"/>
-      <c r="AD47" s="49"/>
-      <c r="AE47" s="49"/>
-      <c r="AF47" s="49"/>
-      <c r="AG47" s="49"/>
-      <c r="AH47" s="49"/>
-      <c r="AI47" s="50"/>
-    </row>
-    <row r="48" spans="2:35">
-      <c r="B48" s="48"/>
-      <c r="C48" s="49" t="s">
+      <c r="D48" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="29"/>
+      <c r="AF48" s="29"/>
+      <c r="AG48" s="29"/>
+      <c r="AH48" s="29"/>
+      <c r="AI48" s="30"/>
+    </row>
+    <row r="49" spans="2:35">
+      <c r="B49" s="28"/>
+      <c r="C49" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="49"/>
-      <c r="U48" s="49"/>
-      <c r="V48" s="49"/>
-      <c r="W48" s="49"/>
-      <c r="X48" s="49"/>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AE48" s="49"/>
-      <c r="AF48" s="49"/>
-      <c r="AG48" s="49"/>
-      <c r="AH48" s="49"/>
-      <c r="AI48" s="50"/>
-    </row>
-    <row r="49" spans="2:35">
-      <c r="B49" s="48"/>
-      <c r="C49" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="49" t="s">
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="30"/>
+    </row>
+    <row r="50" spans="2:35">
+      <c r="B50" s="28"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29"/>
+      <c r="AI50" s="30"/>
+    </row>
+    <row r="51" spans="2:35">
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="35"/>
+    </row>
+    <row r="52" spans="2:35">
+      <c r="B52" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="49"/>
-      <c r="U49" s="49"/>
-      <c r="V49" s="49"/>
-      <c r="W49" s="49"/>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="49"/>
-      <c r="Z49" s="49"/>
-      <c r="AA49" s="49"/>
-      <c r="AB49" s="49"/>
-      <c r="AC49" s="49"/>
-      <c r="AD49" s="49"/>
-      <c r="AE49" s="49"/>
-      <c r="AF49" s="49"/>
-      <c r="AG49" s="49"/>
-      <c r="AH49" s="49"/>
-      <c r="AI49" s="50"/>
-    </row>
-    <row r="50" spans="2:35">
-      <c r="B50" s="48"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="49"/>
-      <c r="W50" s="49"/>
-      <c r="X50" s="49"/>
-      <c r="Y50" s="49"/>
-      <c r="Z50" s="49"/>
-      <c r="AA50" s="49"/>
-      <c r="AB50" s="49"/>
-      <c r="AC50" s="49"/>
-      <c r="AD50" s="49"/>
-      <c r="AE50" s="49"/>
-      <c r="AF50" s="49"/>
-      <c r="AG50" s="49"/>
-      <c r="AH50" s="49"/>
-      <c r="AI50" s="50"/>
-    </row>
-    <row r="51" spans="2:35">
-      <c r="B51" s="56"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="57"/>
-      <c r="Z51" s="57"/>
-      <c r="AA51" s="57"/>
-      <c r="AB51" s="57"/>
-      <c r="AC51" s="57"/>
-      <c r="AD51" s="57"/>
-      <c r="AE51" s="57"/>
-      <c r="AF51" s="57"/>
-      <c r="AG51" s="57"/>
-      <c r="AH51" s="57"/>
-      <c r="AI51" s="58"/>
-    </row>
-    <row r="52" spans="2:35">
-      <c r="B52" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="49"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="49"/>
-      <c r="V52" s="49"/>
-      <c r="W52" s="49"/>
-      <c r="X52" s="49"/>
-      <c r="Y52" s="49"/>
-      <c r="Z52" s="49"/>
-      <c r="AA52" s="49"/>
-      <c r="AB52" s="49"/>
-      <c r="AC52" s="49"/>
-      <c r="AD52" s="49"/>
-      <c r="AE52" s="49"/>
-      <c r="AF52" s="49"/>
-      <c r="AG52" s="49"/>
-      <c r="AH52" s="49"/>
-      <c r="AI52" s="50"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+      <c r="AF52" s="29"/>
+      <c r="AG52" s="29"/>
+      <c r="AH52" s="29"/>
+      <c r="AI52" s="30"/>
     </row>
     <row r="53" spans="2:35">
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="49"/>
-      <c r="P53" s="49"/>
-      <c r="Q53" s="49"/>
-      <c r="R53" s="49"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="49"/>
-      <c r="U53" s="49"/>
-      <c r="V53" s="49"/>
-      <c r="W53" s="49"/>
-      <c r="X53" s="49"/>
-      <c r="Y53" s="49"/>
-      <c r="Z53" s="49"/>
-      <c r="AA53" s="49"/>
-      <c r="AB53" s="49"/>
-      <c r="AC53" s="49"/>
-      <c r="AD53" s="49"/>
-      <c r="AE53" s="49"/>
-      <c r="AF53" s="49"/>
-      <c r="AG53" s="49"/>
-      <c r="AH53" s="49"/>
-      <c r="AI53" s="50"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="29"/>
+      <c r="AF53" s="29"/>
+      <c r="AG53" s="29"/>
+      <c r="AH53" s="29"/>
+      <c r="AI53" s="30"/>
     </row>
     <row r="54" spans="2:35">
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
-      <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="49"/>
-      <c r="V54" s="49"/>
-      <c r="W54" s="49"/>
-      <c r="X54" s="49"/>
-      <c r="Y54" s="49"/>
-      <c r="Z54" s="49"/>
-      <c r="AA54" s="49"/>
-      <c r="AB54" s="49"/>
-      <c r="AC54" s="49"/>
-      <c r="AD54" s="49"/>
-      <c r="AE54" s="49"/>
-      <c r="AF54" s="49"/>
-      <c r="AG54" s="49"/>
-      <c r="AH54" s="49"/>
-      <c r="AI54" s="50"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="29"/>
+      <c r="AF54" s="29"/>
+      <c r="AG54" s="29"/>
+      <c r="AH54" s="29"/>
+      <c r="AI54" s="30"/>
     </row>
     <row r="55" spans="2:35">
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="49"/>
-      <c r="Z55" s="49"/>
-      <c r="AA55" s="49"/>
-      <c r="AB55" s="49"/>
-      <c r="AC55" s="49"/>
-      <c r="AD55" s="49"/>
-      <c r="AE55" s="49"/>
-      <c r="AF55" s="49"/>
-      <c r="AG55" s="49"/>
-      <c r="AH55" s="49"/>
-      <c r="AI55" s="50"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="29"/>
+      <c r="AG55" s="29"/>
+      <c r="AH55" s="29"/>
+      <c r="AI55" s="30"/>
     </row>
     <row r="56" spans="2:35">
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="49"/>
-      <c r="V56" s="49"/>
-      <c r="W56" s="49"/>
-      <c r="X56" s="49"/>
-      <c r="Y56" s="49"/>
-      <c r="Z56" s="49"/>
-      <c r="AA56" s="49"/>
-      <c r="AB56" s="49"/>
-      <c r="AC56" s="49"/>
-      <c r="AD56" s="49"/>
-      <c r="AE56" s="49"/>
-      <c r="AF56" s="49"/>
-      <c r="AG56" s="49"/>
-      <c r="AH56" s="49"/>
-      <c r="AI56" s="50"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="29"/>
+      <c r="AF56" s="29"/>
+      <c r="AG56" s="29"/>
+      <c r="AH56" s="29"/>
+      <c r="AI56" s="30"/>
     </row>
     <row r="57" spans="2:35">
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="49"/>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="49"/>
-      <c r="R57" s="49"/>
-      <c r="S57" s="49"/>
-      <c r="T57" s="49"/>
-      <c r="U57" s="49"/>
-      <c r="V57" s="49"/>
-      <c r="W57" s="49"/>
-      <c r="X57" s="49"/>
-      <c r="Y57" s="49"/>
-      <c r="Z57" s="49"/>
-      <c r="AA57" s="49"/>
-      <c r="AB57" s="49"/>
-      <c r="AC57" s="49"/>
-      <c r="AD57" s="49"/>
-      <c r="AE57" s="49"/>
-      <c r="AF57" s="49"/>
-      <c r="AG57" s="49"/>
-      <c r="AH57" s="49"/>
-      <c r="AI57" s="50"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
+      <c r="AG57" s="29"/>
+      <c r="AH57" s="29"/>
+      <c r="AI57" s="30"/>
     </row>
     <row r="58" spans="2:35" ht="14.5" thickBot="1">
-      <c r="B58" s="103"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="104"/>
-      <c r="K58" s="104"/>
-      <c r="L58" s="104"/>
-      <c r="M58" s="104"/>
-      <c r="N58" s="104"/>
-      <c r="O58" s="104"/>
-      <c r="P58" s="104"/>
-      <c r="Q58" s="104"/>
-      <c r="R58" s="104"/>
-      <c r="S58" s="104"/>
-      <c r="T58" s="104"/>
-      <c r="U58" s="104"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
-      <c r="X58" s="104"/>
-      <c r="Y58" s="104"/>
-      <c r="Z58" s="104"/>
-      <c r="AA58" s="104"/>
-      <c r="AB58" s="104"/>
-      <c r="AC58" s="104"/>
-      <c r="AD58" s="104"/>
-      <c r="AE58" s="104"/>
-      <c r="AF58" s="104"/>
-      <c r="AG58" s="104"/>
-      <c r="AH58" s="104"/>
-      <c r="AI58" s="105"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="52"/>
+      <c r="AD58" s="52"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="52"/>
+      <c r="AG58" s="52"/>
+      <c r="AH58" s="52"/>
+      <c r="AI58" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6647,24 +6545,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
@@ -6679,16 +6577,16 @@
       <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="73"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
         <v>12</v>
